--- a/Experiments/Part1-Uniform-MajorMinor/Part1-peerSim-PeerDistance-Pee-follow.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Part1-peerSim-PeerDistance-Pee-follow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="340" windowWidth="32760" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1741,20 +1741,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103436280"/>
-        <c:axId val="-2103437592"/>
+        <c:axId val="2100341848"/>
+        <c:axId val="2096948792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103436280"/>
+        <c:axId val="2100341848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103437592"/>
+        <c:crossAx val="2096948792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1762,18 +1781,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103437592"/>
+        <c:axId val="2096948792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103436280"/>
+        <c:crossAx val="2100341848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,16 +1837,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2154,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="M1" activeCellId="5" sqref="A1:A1048576 B1:B1048576 D1:D1048576 G1:G1048576 J1:J1048576 M1:M1048576"/>
     </sheetView>
   </sheetViews>

--- a/Experiments/Part1-Uniform-MajorMinor/Part1-peerSim-PeerDistance-Pee-follow.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Part1-peerSim-PeerDistance-Pee-follow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="-420" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,28 +27,28 @@
     <t>Worst Case Strategy</t>
   </si>
   <si>
-    <t>Taste1(Random)</t>
+    <t>Taste 1 (Peer-distance)</t>
   </si>
   <si>
-    <t>Taste0(Random)</t>
+    <t>Taste 0 (Peer-distance)</t>
   </si>
   <si>
-    <t>Taste0(peer-lik-sim)</t>
+    <t>Taste 1 (Peer-follow-sim)</t>
   </si>
   <si>
-    <t>Taste1(peer-like-sim)</t>
+    <t>Taste 0 (Peer-follow-sim)</t>
   </si>
   <si>
-    <t>Taste 0 (peer-follow-sim)</t>
+    <t>Taste 1 (Peer-like-sim)</t>
   </si>
   <si>
-    <t>Taste 1(peer-follow-sim)</t>
+    <t>Taste 0 (Peer-like-sim)</t>
   </si>
   <si>
-    <t>Taste 0(peer-distance)</t>
+    <t>Taste 1(Random)</t>
   </si>
   <si>
-    <t>Taste 1(peer-distance)</t>
+    <t>Taste 0 (Random)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1(peer-distance)</c:v>
+                  <c:v>Taste 1 (Peer-distance)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -683,241 +683,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>2.493333333</c:v>
+                  <c:v>2.25333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.75</c:v>
+                  <c:v>5.686666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.68333333</c:v>
+                  <c:v>11.82666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.26333333</c:v>
+                  <c:v>19.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.44166667</c:v>
+                  <c:v>26.46666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.42</c:v>
+                  <c:v>33.9533333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.33166667</c:v>
+                  <c:v>41.4533333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.305</c:v>
+                  <c:v>48.9533333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.43</c:v>
+                  <c:v>56.4533333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.105</c:v>
+                  <c:v>63.9533333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.505</c:v>
+                  <c:v>71.4533333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.755</c:v>
+                  <c:v>78.9533333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.155</c:v>
+                  <c:v>86.4533333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.66333333</c:v>
+                  <c:v>93.9533333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.255</c:v>
+                  <c:v>101.453333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110.5366667</c:v>
+                  <c:v>108.953333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117.7583333</c:v>
+                  <c:v>116.453333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>124.9583333</c:v>
+                  <c:v>123.953333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132.095</c:v>
+                  <c:v>131.453333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.1083333</c:v>
+                  <c:v>138.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>146.0516667</c:v>
+                  <c:v>146.313333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153.1783333</c:v>
+                  <c:v>153.4466666666664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>159.95</c:v>
+                  <c:v>160.6199999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>166.16</c:v>
+                  <c:v>167.4999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>172.545</c:v>
+                  <c:v>174.2866666666663</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.28</c:v>
+                  <c:v>180.9799999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.8983333</c:v>
+                  <c:v>187.6933333333329</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.2483333</c:v>
+                  <c:v>194.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>198.73</c:v>
+                  <c:v>200.9599999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.1883333</c:v>
+                  <c:v>207.4733333333331</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211.3616667</c:v>
+                  <c:v>213.7933333333329</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>217.3116667</c:v>
+                  <c:v>220.1999999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>223.7616667</c:v>
+                  <c:v>226.7866666666663</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.6716667</c:v>
+                  <c:v>233.2866666666662</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>236.175</c:v>
+                  <c:v>239.4199999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>241.2783333</c:v>
+                  <c:v>245.253333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>246.875</c:v>
+                  <c:v>250.8066666666664</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>251.8683333</c:v>
+                  <c:v>255.953333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>256.3666667</c:v>
+                  <c:v>260.7799999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>261.0116667</c:v>
+                  <c:v>266.3066666666664</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>264.695</c:v>
+                  <c:v>271.3266666666665</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.99</c:v>
+                  <c:v>275.3866666666664</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>270.7516667</c:v>
+                  <c:v>278.493333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>272.18</c:v>
+                  <c:v>280.2599999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>273.6783333</c:v>
+                  <c:v>281.3666666666664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.4883333</c:v>
+                  <c:v>282.2933333333332</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>274.2083333</c:v>
+                  <c:v>281.2599999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>273.1933333</c:v>
+                  <c:v>279.3866666666666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>272.0183333</c:v>
+                  <c:v>277.1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>270.5733333</c:v>
+                  <c:v>274.6733333333332</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>268.46</c:v>
+                  <c:v>272.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>266.3583333</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>264.5583333</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>262.595</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>260.28</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>257.8983333</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>255.8266667</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>253.615</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>251.14</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.6283333</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>246.1616667</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>243.8283333</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>241.4033333</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>238.9283333</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>236.4616667</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>233.995</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.3666667</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.7833333</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.275</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.9</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>221.4583333</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.7833333</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>216.2833333</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.8416667</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.3916667</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.2</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>206.875</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.6333333</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.4666667</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -936,7 +936,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1(peer-follow-sim)</c:v>
+                  <c:v>Taste 1 (Peer-follow-sim)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -951,241 +951,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>2.47037037</c:v>
+                  <c:v>2.25333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.65</c:v>
+                  <c:v>5.826666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.69074074</c:v>
+                  <c:v>11.88666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.52777778</c:v>
+                  <c:v>19.1533333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.84814815</c:v>
+                  <c:v>26.57999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.07962963</c:v>
+                  <c:v>34.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.23148148</c:v>
+                  <c:v>41.55333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.88333333</c:v>
+                  <c:v>49.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.37592593</c:v>
+                  <c:v>56.55333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.76481481</c:v>
+                  <c:v>64.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.26481481</c:v>
+                  <c:v>71.55333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.18148148</c:v>
+                  <c:v>79.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.25</c:v>
+                  <c:v>86.55333333333331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.04444444</c:v>
+                  <c:v>94.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.337037</c:v>
+                  <c:v>101.5533333333331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107.2981481</c:v>
+                  <c:v>109.0533333333331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.0462963</c:v>
+                  <c:v>116.5533333333331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>121.6925926</c:v>
+                  <c:v>124.0533333333331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128.8944444</c:v>
+                  <c:v>131.5533333333331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135.862963</c:v>
+                  <c:v>139.0199999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>142.6240741</c:v>
+                  <c:v>146.4599999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.6240741</c:v>
+                  <c:v>153.8399999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>156.7185185</c:v>
+                  <c:v>161.0533333333331</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>163.2759259</c:v>
+                  <c:v>168.113333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>169.7814815</c:v>
+                  <c:v>175.0399999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>176.4333333</c:v>
+                  <c:v>181.8733333333329</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>182.8648148</c:v>
+                  <c:v>188.453333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>189.3814815</c:v>
+                  <c:v>195.0999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.7722222</c:v>
+                  <c:v>201.6733333333331</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>201.5240741</c:v>
+                  <c:v>208.313333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>207.8111111</c:v>
+                  <c:v>214.7199999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>213.6518519</c:v>
+                  <c:v>220.7599999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>220.2222222</c:v>
+                  <c:v>227.2333333333329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>225.9148148</c:v>
+                  <c:v>233.4466666666663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>231.65</c:v>
+                  <c:v>239.6333333333331</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>237.3888889</c:v>
+                  <c:v>245.9066666666662</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>242.8740741</c:v>
+                  <c:v>251.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.0592593</c:v>
+                  <c:v>257.5533333333331</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.0962963</c:v>
+                  <c:v>263.053333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.0592593</c:v>
+                  <c:v>267.353333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>262.3648148</c:v>
+                  <c:v>271.873333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>265.9240741</c:v>
+                  <c:v>275.8066666666664</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>269.1240741</c:v>
+                  <c:v>278.813333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.8240741</c:v>
+                  <c:v>281.2599999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>273.6851852</c:v>
+                  <c:v>282.7933333333331</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.2888889</c:v>
+                  <c:v>282.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>274.8166667</c:v>
+                  <c:v>281.4999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>274.4481481</c:v>
+                  <c:v>279.7266666666666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.0166667</c:v>
+                  <c:v>277.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.4092593</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>270.887037</c:v>
+                  <c:v>272.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>269.0777778</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>267.1407407</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>265.1259259</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>262.7092593</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>260.2148148</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.9259259</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>255.5555556</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>252.9814815</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.4888889</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>247.9351852</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.212963</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.712963</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.1759259</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>237.6944444</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.4259259</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.8425926</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.4259259</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.75</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.2407407</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.6203704</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220.1481481</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.8703704</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.2962963</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>213.0185185</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.5092593</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>208.0</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.4537037</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.8981481</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1204,7 +1204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste1(peer-like-sim)</c:v>
+                  <c:v>Taste 1 (Peer-like-sim)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1219,241 +1219,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>2.493333333</c:v>
+                  <c:v>2.386666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.628333333</c:v>
+                  <c:v>7.45333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.26333333</c:v>
+                  <c:v>14.17999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.15666667</c:v>
+                  <c:v>21.3733333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.075</c:v>
+                  <c:v>28.75333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.13833333</c:v>
+                  <c:v>36.17333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.11166667</c:v>
+                  <c:v>43.6533333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.39833333</c:v>
+                  <c:v>51.1533333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.29833333</c:v>
+                  <c:v>58.6533333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.09833333</c:v>
+                  <c:v>66.15333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.83166667</c:v>
+                  <c:v>73.65333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.94166667</c:v>
+                  <c:v>81.15333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.13333333</c:v>
+                  <c:v>88.65333333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.72666667</c:v>
+                  <c:v>96.15333333333329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.7783333</c:v>
+                  <c:v>103.6533333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.7</c:v>
+                  <c:v>111.1533333333329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.575</c:v>
+                  <c:v>118.6466666666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123.875</c:v>
+                  <c:v>126.0866666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>131.2083333</c:v>
+                  <c:v>133.4266666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>137.9116667</c:v>
+                  <c:v>140.6733333333331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>145.165</c:v>
+                  <c:v>147.8266666666663</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>151.82</c:v>
+                  <c:v>154.8466666666663</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>158.655</c:v>
+                  <c:v>161.6266666666663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.0566667</c:v>
+                  <c:v>168.3866666666663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>172.1483333</c:v>
+                  <c:v>175.2333333333329</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>178.3566667</c:v>
+                  <c:v>181.8466666666664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>184.7716667</c:v>
+                  <c:v>188.5466666666663</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>191.97</c:v>
+                  <c:v>195.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>198.3366667</c:v>
+                  <c:v>202.053333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>204.555</c:v>
+                  <c:v>208.5866666666664</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>210.4266667</c:v>
+                  <c:v>215.2066666666664</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>216.8416667</c:v>
+                  <c:v>221.3599999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>222.785</c:v>
+                  <c:v>227.8266666666664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>228.9316667</c:v>
+                  <c:v>234.3066666666663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234.74</c:v>
+                  <c:v>240.3066666666664</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.95</c:v>
+                  <c:v>246.2599999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>245.19</c:v>
+                  <c:v>251.7799999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>250.4416667</c:v>
+                  <c:v>256.8666666666662</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>255.465</c:v>
+                  <c:v>262.3999999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>259.98</c:v>
+                  <c:v>267.3599999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>264.17</c:v>
+                  <c:v>271.1599999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.8216667</c:v>
+                  <c:v>274.313333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>270.9633333</c:v>
+                  <c:v>277.593333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>273.1883333</c:v>
+                  <c:v>280.1599999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>274.49</c:v>
+                  <c:v>280.5599999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>275.2016667</c:v>
+                  <c:v>280.6599999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>275.1366667</c:v>
+                  <c:v>280.2133333333332</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>274.6733333</c:v>
+                  <c:v>278.6466666666664</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>273.6466667</c:v>
+                  <c:v>277.0466666666666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.4016667</c:v>
+                  <c:v>274.9266666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>270.625</c:v>
+                  <c:v>272.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>268.815</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>266.6966667</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>264.7</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>262.2633333</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.975</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.4916667</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>255.1283333</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>252.82</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.5116667</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>247.9866667</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.4966667</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>243.1583333</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.6416667</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>238.2083333</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.675</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>233.175</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.75</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>228.2916667</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.725</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>223.1166667</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220.55</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>218.0416667</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.5166667</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.9916667</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.4333333</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.75</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.2166667</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.475</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1472,7 +1472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste1(Random)</c:v>
+                  <c:v>Taste 1(Random)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1487,241 +1487,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>2.646666667</c:v>
+                  <c:v>2.59523809523809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.005</c:v>
+                  <c:v>5.08571428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.575</c:v>
+                  <c:v>7.623809523809518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3</c:v>
+                  <c:v>10.18095238095234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.54</c:v>
+                  <c:v>12.74285714285711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.98333333</c:v>
+                  <c:v>15.1619047619047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.48333333</c:v>
+                  <c:v>17.61904761904757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.69833333</c:v>
+                  <c:v>20.20476190476187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.33666667</c:v>
+                  <c:v>22.86190476190471</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.97166667</c:v>
+                  <c:v>25.38571428571423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.425</c:v>
+                  <c:v>27.73333333333328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.665</c:v>
+                  <c:v>30.26666666666661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.35166667</c:v>
+                  <c:v>32.50476190476187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.62833333</c:v>
+                  <c:v>35.09047619047614</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.14833333</c:v>
+                  <c:v>37.4285714285714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.505</c:v>
+                  <c:v>39.89523809523804</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.97166667</c:v>
+                  <c:v>42.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.415</c:v>
+                  <c:v>44.74285714285707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.07333333</c:v>
+                  <c:v>47.2523809523809</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.71666667</c:v>
+                  <c:v>49.747619047619</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52.02666667</c:v>
+                  <c:v>52.31904761904756</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54.87833333</c:v>
+                  <c:v>54.92857142857137</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>57.04833333</c:v>
+                  <c:v>57.54761904761899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59.54166667</c:v>
+                  <c:v>60.22380952380947</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.46333333</c:v>
+                  <c:v>62.70476190476184</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64.895</c:v>
+                  <c:v>65.12857142857138</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>67.52500000000001</c:v>
+                  <c:v>67.47142857142853</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69.895</c:v>
+                  <c:v>70.00476190476186</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>72.46333333</c:v>
+                  <c:v>72.4619047619047</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74.99333333</c:v>
+                  <c:v>75.17619047619044</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>77.67666667</c:v>
+                  <c:v>77.647619047619</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>79.89833333</c:v>
+                  <c:v>80.05238095238093</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>82.46833332999999</c:v>
+                  <c:v>82.67142857142854</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84.88</c:v>
+                  <c:v>85.19999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87.52</c:v>
+                  <c:v>87.58095238095234</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>90.23333332999999</c:v>
+                  <c:v>89.91904761904757</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>93.02166667</c:v>
+                  <c:v>92.447619047619</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.47666667</c:v>
+                  <c:v>94.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>97.75333333</c:v>
+                  <c:v>97.29047619047614</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.2583333</c:v>
+                  <c:v>99.78571428571413</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.7133333</c:v>
+                  <c:v>102.2476190476185</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>105.3</c:v>
+                  <c:v>104.4190476190472</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>107.67</c:v>
+                  <c:v>106.7380952380947</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>110.375</c:v>
+                  <c:v>109.1428571428566</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>112.805</c:v>
+                  <c:v>111.5714285714282</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>115.335</c:v>
+                  <c:v>114.0333333333329</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>117.9966667</c:v>
+                  <c:v>116.5857142857138</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>120.4716667</c:v>
+                  <c:v>119.1095238095235</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122.9766667</c:v>
+                  <c:v>121.7095238095235</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>125.6083333</c:v>
+                  <c:v>124.3285714285712</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>128.4083333</c:v>
+                  <c:v>126.9285714285709</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>130.6833333</c:v>
+                  <c:v>129.5857142857137</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>133.3016667</c:v>
+                  <c:v>132.3666666666661</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.7233333</c:v>
+                  <c:v>134.8857142857138</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>138.0033333</c:v>
+                  <c:v>137.4190476190471</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>140.3366667</c:v>
+                  <c:v>140.0809523809517</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>142.9866667</c:v>
+                  <c:v>142.3619047619042</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>145.2816667</c:v>
+                  <c:v>145.180952380952</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>147.89</c:v>
+                  <c:v>147.7380952380946</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>150.5933333</c:v>
+                  <c:v>150.0571428571423</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>153.0716667</c:v>
+                  <c:v>152.7619047619044</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>155.6116667</c:v>
+                  <c:v>155.2047619047615</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>157.8983333</c:v>
+                  <c:v>157.4857142857138</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>160.1816667</c:v>
+                  <c:v>159.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>162.4733333</c:v>
+                  <c:v>162.4047619047615</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>165.2183333</c:v>
+                  <c:v>164.8142857142854</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>167.6933333</c:v>
+                  <c:v>167.2285714285711</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>170.0783333</c:v>
+                  <c:v>169.7047619047614</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>172.3716667</c:v>
+                  <c:v>172.285714285714</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>174.78</c:v>
+                  <c:v>174.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>177.185</c:v>
+                  <c:v>177.1285714285709</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>179.91</c:v>
+                  <c:v>179.7285714285709</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>182.4333333</c:v>
+                  <c:v>182.2904761904757</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>184.975</c:v>
+                  <c:v>184.928571428571</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>187.4566667</c:v>
+                  <c:v>187.280952380952</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>189.9016667</c:v>
+                  <c:v>189.8476190476185</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>192.2533333</c:v>
+                  <c:v>192.4476190476187</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>194.6033333</c:v>
+                  <c:v>194.8857142857138</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>197.285</c:v>
+                  <c:v>197.4238095238091</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1741,11 +1741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100341848"/>
-        <c:axId val="2096948792"/>
+        <c:axId val="2136326520"/>
+        <c:axId val="-2108421848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100341848"/>
+        <c:axId val="2136326520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096948792"/>
+        <c:crossAx val="-2108421848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1781,7 +1781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096948792"/>
+        <c:axId val="-2108421848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100341848"/>
+        <c:crossAx val="2136326520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,16 +1837,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2193,10 +2193,14 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="5" sqref="A1:A1048576 B1:B1048576 D1:D1048576 G1:G1048576 J1:J1048576 M1:M1048576"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -2205,29 +2209,29 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2237,29 +2241,29 @@
       <c r="B2" s="1">
         <v>-2.5</v>
       </c>
-      <c r="D2" s="1">
-        <v>2.4933333329999998</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.6466666669999999</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.4703703699999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.662962963</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.4933333329999998</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.6466666669999999</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2.6466666669999999</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2.4066666670000001</v>
+      <c r="D2">
+        <v>2.2533333333333299</v>
+      </c>
+      <c r="E2">
+        <v>2.579999999999997</v>
+      </c>
+      <c r="G2">
+        <v>2.2533333333333299</v>
+      </c>
+      <c r="H2">
+        <v>2.579999999999997</v>
+      </c>
+      <c r="J2">
+        <v>2.3866666666666627</v>
+      </c>
+      <c r="K2">
+        <v>2.6066666666666629</v>
+      </c>
+      <c r="M2">
+        <v>2.5952380952380905</v>
+      </c>
+      <c r="N2">
+        <v>2.411111111111107</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2269,29 +2273,29 @@
       <c r="B3" s="1">
         <v>-5</v>
       </c>
-      <c r="D3" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.33</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.65</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7.3129629630000004</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7.6283333329999996</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8.4649999999999999</v>
-      </c>
-      <c r="M3" s="1">
-        <v>5.0049999999999999</v>
-      </c>
-      <c r="N3" s="1">
-        <v>4.8083333330000002</v>
+      <c r="D3">
+        <v>5.6866666666666656</v>
+      </c>
+      <c r="E3">
+        <v>6.3333333333333304</v>
+      </c>
+      <c r="G3">
+        <v>5.8266666666666636</v>
+      </c>
+      <c r="H3">
+        <v>6.2799999999999949</v>
+      </c>
+      <c r="J3">
+        <v>7.4533333333333305</v>
+      </c>
+      <c r="K3">
+        <v>7.7533333333333303</v>
+      </c>
+      <c r="M3">
+        <v>5.0857142857142792</v>
+      </c>
+      <c r="N3">
+        <v>4.9555555555555504</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2301,29 +2305,29 @@
       <c r="B4" s="1">
         <v>-7.5</v>
       </c>
-      <c r="D4" s="1">
-        <v>12.68333333</v>
-      </c>
-      <c r="E4" s="1">
-        <v>13.79666667</v>
-      </c>
-      <c r="G4" s="1">
-        <v>12.690740740000001</v>
-      </c>
-      <c r="H4" s="1">
-        <v>13.53148148</v>
-      </c>
-      <c r="J4" s="1">
-        <v>14.26333333</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15.39666667</v>
-      </c>
-      <c r="M4" s="1">
-        <v>7.5750000000000002</v>
-      </c>
-      <c r="N4" s="1">
-        <v>7.5583333330000002</v>
+      <c r="D4">
+        <v>11.826666666666632</v>
+      </c>
+      <c r="E4">
+        <v>12.539999999999971</v>
+      </c>
+      <c r="G4">
+        <v>11.886666666666631</v>
+      </c>
+      <c r="H4">
+        <v>12.573333333333299</v>
+      </c>
+      <c r="J4">
+        <v>14.17999999999997</v>
+      </c>
+      <c r="K4">
+        <v>14.539999999999969</v>
+      </c>
+      <c r="M4">
+        <v>7.623809523809518</v>
+      </c>
+      <c r="N4">
+        <v>6.8555555555555499</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2333,29 +2337,29 @@
       <c r="B5" s="1">
         <v>-10</v>
       </c>
-      <c r="D5" s="1">
-        <v>19.263333329999998</v>
-      </c>
-      <c r="E5" s="1">
-        <v>21.16333333</v>
-      </c>
-      <c r="G5" s="1">
-        <v>19.527777780000001</v>
-      </c>
-      <c r="H5" s="1">
-        <v>20.42777778</v>
-      </c>
-      <c r="J5" s="1">
-        <v>21.15666667</v>
-      </c>
-      <c r="K5" s="1">
-        <v>22.743333329999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="N5" s="1">
-        <v>10.053333329999999</v>
+      <c r="D5">
+        <v>19.033333333333296</v>
+      </c>
+      <c r="E5">
+        <v>19.839999999999971</v>
+      </c>
+      <c r="G5">
+        <v>19.1533333333333</v>
+      </c>
+      <c r="H5">
+        <v>19.886666666666638</v>
+      </c>
+      <c r="J5">
+        <v>21.373333333333299</v>
+      </c>
+      <c r="K5">
+        <v>21.846666666666621</v>
+      </c>
+      <c r="M5">
+        <v>10.180952380952339</v>
+      </c>
+      <c r="N5">
+        <v>9.1333333333333293</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2365,29 +2369,29 @@
       <c r="B6" s="1">
         <v>-12.5</v>
       </c>
-      <c r="D6" s="1">
-        <v>26.44166667</v>
-      </c>
-      <c r="E6" s="1">
-        <v>28.265000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>26.84814815</v>
-      </c>
-      <c r="H6" s="1">
-        <v>27.633333329999999</v>
-      </c>
-      <c r="J6" s="1">
-        <v>28.074999999999999</v>
-      </c>
-      <c r="K6" s="1">
-        <v>30.585000000000001</v>
-      </c>
-      <c r="M6" s="1">
-        <v>12.54</v>
-      </c>
-      <c r="N6" s="1">
-        <v>12.446666670000001</v>
+      <c r="D6">
+        <v>26.466666666666629</v>
+      </c>
+      <c r="E6">
+        <v>27.306666666666636</v>
+      </c>
+      <c r="G6">
+        <v>26.579999999999977</v>
+      </c>
+      <c r="H6">
+        <v>27.326666666666643</v>
+      </c>
+      <c r="J6">
+        <v>28.753333333333295</v>
+      </c>
+      <c r="K6">
+        <v>29.246666666666631</v>
+      </c>
+      <c r="M6">
+        <v>12.742857142857108</v>
+      </c>
+      <c r="N6">
+        <v>11.64444444444441</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2397,29 +2401,29 @@
       <c r="B7" s="1">
         <v>-15</v>
       </c>
-      <c r="D7" s="1">
-        <v>34.42</v>
-      </c>
-      <c r="E7" s="1">
-        <v>35.066666669999996</v>
-      </c>
-      <c r="G7" s="1">
-        <v>34.079629629999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>35.18703704</v>
-      </c>
-      <c r="J7" s="1">
-        <v>35.138333330000002</v>
-      </c>
-      <c r="K7" s="1">
-        <v>38.295000000000002</v>
-      </c>
-      <c r="M7" s="1">
-        <v>14.983333330000001</v>
-      </c>
-      <c r="N7" s="1">
-        <v>14.84333333</v>
+      <c r="D7">
+        <v>33.953333333333305</v>
+      </c>
+      <c r="E7">
+        <v>34.806666666666636</v>
+      </c>
+      <c r="G7">
+        <v>34.053333333333313</v>
+      </c>
+      <c r="H7">
+        <v>34.82666666666664</v>
+      </c>
+      <c r="J7">
+        <v>36.173333333333289</v>
+      </c>
+      <c r="K7">
+        <v>36.746666666666627</v>
+      </c>
+      <c r="M7">
+        <v>15.161904761904699</v>
+      </c>
+      <c r="N7">
+        <v>14.133333333333292</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2429,29 +2433,29 @@
       <c r="B8" s="1">
         <v>-17.5</v>
       </c>
-      <c r="D8" s="1">
-        <v>42.331666669999997</v>
-      </c>
-      <c r="E8" s="1">
-        <v>42.081666669999997</v>
-      </c>
-      <c r="G8" s="1">
-        <v>41.231481479999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>42.99074074</v>
-      </c>
-      <c r="J8" s="1">
-        <v>43.111666669999998</v>
-      </c>
-      <c r="K8" s="1">
-        <v>45.274999999999999</v>
-      </c>
-      <c r="M8" s="1">
-        <v>17.483333330000001</v>
-      </c>
-      <c r="N8" s="1">
-        <v>17.456666670000001</v>
+      <c r="D8">
+        <v>41.453333333333305</v>
+      </c>
+      <c r="E8">
+        <v>42.306666666666636</v>
+      </c>
+      <c r="G8">
+        <v>41.553333333333313</v>
+      </c>
+      <c r="H8">
+        <v>42.32666666666664</v>
+      </c>
+      <c r="J8">
+        <v>43.653333333333293</v>
+      </c>
+      <c r="K8">
+        <v>44.179999999999964</v>
+      </c>
+      <c r="M8">
+        <v>17.619047619047571</v>
+      </c>
+      <c r="N8">
+        <v>16.655555555555491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2461,29 +2465,29 @@
       <c r="B9" s="1">
         <v>-20</v>
       </c>
-      <c r="D9" s="1">
-        <v>50.305</v>
-      </c>
-      <c r="E9" s="1">
-        <v>49.021666670000002</v>
-      </c>
-      <c r="G9" s="1">
-        <v>48.883333329999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>50.301851849999998</v>
-      </c>
-      <c r="J9" s="1">
-        <v>50.39833333</v>
-      </c>
-      <c r="K9" s="1">
-        <v>52.954999999999998</v>
-      </c>
-      <c r="M9" s="1">
-        <v>19.698333330000001</v>
-      </c>
-      <c r="N9" s="1">
-        <v>20.241666670000001</v>
+      <c r="D9">
+        <v>48.953333333333305</v>
+      </c>
+      <c r="E9">
+        <v>49.806666666666636</v>
+      </c>
+      <c r="G9">
+        <v>49.053333333333313</v>
+      </c>
+      <c r="H9">
+        <v>49.82666666666664</v>
+      </c>
+      <c r="J9">
+        <v>51.153333333333293</v>
+      </c>
+      <c r="K9">
+        <v>51.679999999999971</v>
+      </c>
+      <c r="M9">
+        <v>20.204761904761867</v>
+      </c>
+      <c r="N9">
+        <v>19.02222222222218</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2493,29 +2497,29 @@
       <c r="B10" s="1">
         <v>-22.5</v>
       </c>
-      <c r="D10" s="1">
-        <v>58.43</v>
-      </c>
-      <c r="E10" s="1">
-        <v>55.896666670000002</v>
-      </c>
-      <c r="G10" s="1">
-        <v>56.375925930000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>57.787037040000001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>58.298333329999998</v>
-      </c>
-      <c r="K10" s="1">
-        <v>60.048333329999998</v>
-      </c>
-      <c r="M10" s="1">
-        <v>22.33666667</v>
-      </c>
-      <c r="N10" s="1">
-        <v>22.83</v>
+      <c r="D10">
+        <v>56.453333333333305</v>
+      </c>
+      <c r="E10">
+        <v>57.306666666666636</v>
+      </c>
+      <c r="G10">
+        <v>56.553333333333306</v>
+      </c>
+      <c r="H10">
+        <v>57.32666666666664</v>
+      </c>
+      <c r="J10">
+        <v>58.653333333333293</v>
+      </c>
+      <c r="K10">
+        <v>59.179999999999971</v>
+      </c>
+      <c r="M10">
+        <v>22.861904761904711</v>
+      </c>
+      <c r="N10">
+        <v>21.599999999999959</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2525,29 +2529,29 @@
       <c r="B11" s="1">
         <v>-25</v>
       </c>
-      <c r="D11" s="1">
-        <v>66.105000000000004</v>
-      </c>
-      <c r="E11" s="1">
-        <v>63.195</v>
-      </c>
-      <c r="G11" s="1">
-        <v>63.764814809999997</v>
-      </c>
-      <c r="H11" s="1">
-        <v>65.398148149999997</v>
-      </c>
-      <c r="J11" s="1">
-        <v>66.098333330000003</v>
-      </c>
-      <c r="K11" s="1">
-        <v>67.201666669999994</v>
-      </c>
-      <c r="M11" s="1">
-        <v>24.971666670000001</v>
-      </c>
-      <c r="N11" s="1">
-        <v>25.12166667</v>
+      <c r="D11">
+        <v>63.953333333333305</v>
+      </c>
+      <c r="E11">
+        <v>64.806666666666644</v>
+      </c>
+      <c r="G11">
+        <v>64.053333333333313</v>
+      </c>
+      <c r="H11">
+        <v>64.82666666666664</v>
+      </c>
+      <c r="J11">
+        <v>66.153333333333293</v>
+      </c>
+      <c r="K11">
+        <v>66.679999999999978</v>
+      </c>
+      <c r="M11">
+        <v>25.385714285714233</v>
+      </c>
+      <c r="N11">
+        <v>24.177777777777727</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2557,29 +2561,29 @@
       <c r="B12" s="1">
         <v>-27.5</v>
       </c>
-      <c r="D12" s="1">
-        <v>73.504999999999995</v>
-      </c>
-      <c r="E12" s="1">
-        <v>70.795000000000002</v>
-      </c>
-      <c r="G12" s="1">
-        <v>71.264814810000004</v>
-      </c>
-      <c r="H12" s="1">
-        <v>72.898148149999997</v>
-      </c>
-      <c r="J12" s="1">
-        <v>73.831666670000004</v>
-      </c>
-      <c r="K12" s="1">
-        <v>74.314999999999998</v>
-      </c>
-      <c r="M12" s="1">
-        <v>27.425000000000001</v>
-      </c>
-      <c r="N12" s="1">
-        <v>27.508333329999999</v>
+      <c r="D12">
+        <v>71.453333333333305</v>
+      </c>
+      <c r="E12">
+        <v>72.306666666666644</v>
+      </c>
+      <c r="G12">
+        <v>71.553333333333313</v>
+      </c>
+      <c r="H12">
+        <v>72.32666666666664</v>
+      </c>
+      <c r="J12">
+        <v>73.653333333333293</v>
+      </c>
+      <c r="K12">
+        <v>74.179999999999978</v>
+      </c>
+      <c r="M12">
+        <v>27.733333333333281</v>
+      </c>
+      <c r="N12">
+        <v>26.699999999999953</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2589,29 +2593,29 @@
       <c r="B13" s="1">
         <v>-30</v>
       </c>
-      <c r="D13" s="1">
-        <v>80.754999999999995</v>
-      </c>
-      <c r="E13" s="1">
-        <v>78.531666670000007</v>
-      </c>
-      <c r="G13" s="1">
-        <v>79.181481480000002</v>
-      </c>
-      <c r="H13" s="1">
-        <v>79.97407407</v>
-      </c>
-      <c r="J13" s="1">
-        <v>80.941666670000004</v>
-      </c>
-      <c r="K13" s="1">
-        <v>82.03833333</v>
-      </c>
-      <c r="M13" s="1">
-        <v>29.664999999999999</v>
-      </c>
-      <c r="N13" s="1">
-        <v>30.28833333</v>
+      <c r="D13">
+        <v>78.953333333333305</v>
+      </c>
+      <c r="E13">
+        <v>79.806666666666644</v>
+      </c>
+      <c r="G13">
+        <v>79.053333333333313</v>
+      </c>
+      <c r="H13">
+        <v>79.82666666666664</v>
+      </c>
+      <c r="J13">
+        <v>81.153333333333293</v>
+      </c>
+      <c r="K13">
+        <v>81.679999999999978</v>
+      </c>
+      <c r="M13">
+        <v>30.266666666666612</v>
+      </c>
+      <c r="N13">
+        <v>29.133333333333276</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2621,29 +2625,29 @@
       <c r="B14" s="1">
         <v>-32.5</v>
       </c>
-      <c r="D14" s="1">
-        <v>88.155000000000001</v>
-      </c>
-      <c r="E14" s="1">
-        <v>86.111666670000005</v>
-      </c>
-      <c r="G14" s="1">
-        <v>86.25</v>
-      </c>
-      <c r="H14" s="1">
-        <v>87.801851850000006</v>
-      </c>
-      <c r="J14" s="1">
-        <v>88.133333329999999</v>
-      </c>
-      <c r="K14" s="1">
-        <v>89.406666670000007</v>
-      </c>
-      <c r="M14" s="1">
-        <v>32.35166667</v>
-      </c>
-      <c r="N14" s="1">
-        <v>32.561666670000001</v>
+      <c r="D14">
+        <v>86.453333333333305</v>
+      </c>
+      <c r="E14">
+        <v>87.306666666666644</v>
+      </c>
+      <c r="G14">
+        <v>86.553333333333313</v>
+      </c>
+      <c r="H14">
+        <v>87.32666666666664</v>
+      </c>
+      <c r="J14">
+        <v>88.653333333333293</v>
+      </c>
+      <c r="K14">
+        <v>89.179999999999978</v>
+      </c>
+      <c r="M14">
+        <v>32.504761904761871</v>
+      </c>
+      <c r="N14">
+        <v>31.722222222222172</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2653,29 +2657,29 @@
       <c r="B15" s="1">
         <v>-35</v>
       </c>
-      <c r="D15" s="1">
-        <v>95.66333333</v>
-      </c>
-      <c r="E15" s="1">
-        <v>93.483333329999994</v>
-      </c>
-      <c r="G15" s="1">
-        <v>93.044444440000007</v>
-      </c>
-      <c r="H15" s="1">
-        <v>95.8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>95.72666667</v>
-      </c>
-      <c r="K15" s="1">
-        <v>96.41333333</v>
-      </c>
-      <c r="M15" s="1">
-        <v>34.628333329999997</v>
-      </c>
-      <c r="N15" s="1">
-        <v>35.085000000000001</v>
+      <c r="D15">
+        <v>93.953333333333305</v>
+      </c>
+      <c r="E15">
+        <v>94.806666666666644</v>
+      </c>
+      <c r="G15">
+        <v>94.053333333333313</v>
+      </c>
+      <c r="H15">
+        <v>94.82666666666664</v>
+      </c>
+      <c r="J15">
+        <v>96.153333333333293</v>
+      </c>
+      <c r="K15">
+        <v>96.679999999999978</v>
+      </c>
+      <c r="M15">
+        <v>35.090476190476146</v>
+      </c>
+      <c r="N15">
+        <v>34.43333333333328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2685,29 +2689,29 @@
       <c r="B16" s="1">
         <v>-37.5</v>
       </c>
-      <c r="D16" s="1">
-        <v>103.255</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100.6983333</v>
-      </c>
-      <c r="G16" s="1">
-        <v>100.337037</v>
-      </c>
-      <c r="H16" s="1">
-        <v>103.3</v>
-      </c>
-      <c r="J16" s="1">
-        <v>102.7783333</v>
-      </c>
-      <c r="K16" s="1">
-        <v>103.3283333</v>
-      </c>
-      <c r="M16" s="1">
-        <v>37.14833333</v>
-      </c>
-      <c r="N16" s="1">
-        <v>37.698333329999997</v>
+      <c r="D16">
+        <v>101.45333333333302</v>
+      </c>
+      <c r="E16">
+        <v>102.30666666666642</v>
+      </c>
+      <c r="G16">
+        <v>101.55333333333309</v>
+      </c>
+      <c r="H16">
+        <v>102.3266666666664</v>
+      </c>
+      <c r="J16">
+        <v>103.65333333333292</v>
+      </c>
+      <c r="K16">
+        <v>104.17999999999972</v>
+      </c>
+      <c r="M16">
+        <v>37.428571428571402</v>
+      </c>
+      <c r="N16">
+        <v>36.944444444444414</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2717,29 +2721,29 @@
       <c r="B17" s="1">
         <v>-40</v>
       </c>
-      <c r="D17" s="1">
-        <v>110.5366667</v>
-      </c>
-      <c r="E17" s="1">
-        <v>107.9766667</v>
-      </c>
-      <c r="G17" s="1">
-        <v>107.29814810000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>110.8944444</v>
-      </c>
-      <c r="J17" s="1">
-        <v>109.7</v>
-      </c>
-      <c r="K17" s="1">
-        <v>110.4333333</v>
-      </c>
-      <c r="M17" s="1">
-        <v>39.505000000000003</v>
-      </c>
-      <c r="N17" s="1">
-        <v>40.268333329999997</v>
+      <c r="D17">
+        <v>108.95333333333301</v>
+      </c>
+      <c r="E17">
+        <v>109.80666666666642</v>
+      </c>
+      <c r="G17">
+        <v>109.0533333333331</v>
+      </c>
+      <c r="H17">
+        <v>109.8266666666664</v>
+      </c>
+      <c r="J17">
+        <v>111.15333333333292</v>
+      </c>
+      <c r="K17">
+        <v>111.67999999999972</v>
+      </c>
+      <c r="M17">
+        <v>39.895238095238042</v>
+      </c>
+      <c r="N17">
+        <v>39.577777777777712</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2749,29 +2753,29 @@
       <c r="B18" s="1">
         <v>-42.5</v>
       </c>
-      <c r="D18" s="1">
-        <v>117.7583333</v>
-      </c>
-      <c r="E18" s="1">
-        <v>115.0483333</v>
-      </c>
-      <c r="G18" s="1">
-        <v>114.04629629999999</v>
-      </c>
-      <c r="H18" s="1">
-        <v>118.7166667</v>
-      </c>
-      <c r="J18" s="1">
-        <v>116.575</v>
-      </c>
-      <c r="K18" s="1">
-        <v>117.2516667</v>
-      </c>
-      <c r="M18" s="1">
-        <v>41.971666669999998</v>
-      </c>
-      <c r="N18" s="1">
-        <v>42.895000000000003</v>
+      <c r="D18">
+        <v>116.45333333333301</v>
+      </c>
+      <c r="E18">
+        <v>117.30666666666642</v>
+      </c>
+      <c r="G18">
+        <v>116.5533333333331</v>
+      </c>
+      <c r="H18">
+        <v>117.3266666666664</v>
+      </c>
+      <c r="J18">
+        <v>118.64666666666631</v>
+      </c>
+      <c r="K18">
+        <v>119.17999999999972</v>
+      </c>
+      <c r="M18">
+        <v>42.333333333333293</v>
+      </c>
+      <c r="N18">
+        <v>42.12222222222217</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2781,29 +2785,29 @@
       <c r="B19" s="1">
         <v>-45</v>
       </c>
-      <c r="D19" s="1">
-        <v>124.95833330000001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>122.035</v>
-      </c>
-      <c r="G19" s="1">
-        <v>121.6925926</v>
-      </c>
-      <c r="H19" s="1">
-        <v>125.35925930000001</v>
-      </c>
-      <c r="J19" s="1">
-        <v>123.875</v>
-      </c>
-      <c r="K19" s="1">
-        <v>123.9383333</v>
-      </c>
-      <c r="M19" s="1">
-        <v>44.414999999999999</v>
-      </c>
-      <c r="N19" s="1">
-        <v>45.458333330000002</v>
+      <c r="D19">
+        <v>123.95333333333301</v>
+      </c>
+      <c r="E19">
+        <v>124.80666666666642</v>
+      </c>
+      <c r="G19">
+        <v>124.0533333333331</v>
+      </c>
+      <c r="H19">
+        <v>124.8266666666664</v>
+      </c>
+      <c r="J19">
+        <v>126.08666666666632</v>
+      </c>
+      <c r="K19">
+        <v>126.65999999999971</v>
+      </c>
+      <c r="M19">
+        <v>44.742857142857076</v>
+      </c>
+      <c r="N19">
+        <v>44.399999999999956</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2813,29 +2817,29 @@
       <c r="B20" s="1">
         <v>-47.5</v>
       </c>
-      <c r="D20" s="1">
-        <v>132.095</v>
-      </c>
-      <c r="E20" s="1">
-        <v>128.8316667</v>
-      </c>
-      <c r="G20" s="1">
-        <v>128.8944444</v>
-      </c>
-      <c r="H20" s="1">
-        <v>132.3203704</v>
-      </c>
-      <c r="J20" s="1">
-        <v>131.20833329999999</v>
-      </c>
-      <c r="K20" s="1">
-        <v>130.6716667</v>
-      </c>
-      <c r="M20" s="1">
-        <v>47.073333329999997</v>
-      </c>
-      <c r="N20" s="1">
-        <v>47.66</v>
+      <c r="D20">
+        <v>131.45333333333301</v>
+      </c>
+      <c r="E20">
+        <v>132.2999999999997</v>
+      </c>
+      <c r="G20">
+        <v>131.55333333333311</v>
+      </c>
+      <c r="H20">
+        <v>132.30666666666639</v>
+      </c>
+      <c r="J20">
+        <v>133.42666666666634</v>
+      </c>
+      <c r="K20">
+        <v>134.05333333333311</v>
+      </c>
+      <c r="M20">
+        <v>47.252380952380904</v>
+      </c>
+      <c r="N20">
+        <v>46.82222222222218</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2845,29 +2849,29 @@
       <c r="B21" s="1">
         <v>-50</v>
       </c>
-      <c r="D21" s="1">
-        <v>139.1083333</v>
-      </c>
-      <c r="E21" s="1">
-        <v>135.6383333</v>
-      </c>
-      <c r="G21" s="1">
-        <v>135.86296300000001</v>
-      </c>
-      <c r="H21" s="1">
-        <v>139.24814810000001</v>
-      </c>
-      <c r="J21" s="1">
-        <v>137.91166670000001</v>
-      </c>
-      <c r="K21" s="1">
-        <v>137.67500000000001</v>
-      </c>
-      <c r="M21" s="1">
-        <v>49.716666670000002</v>
-      </c>
-      <c r="N21" s="1">
-        <v>50.09</v>
+      <c r="D21">
+        <v>138.933333333333</v>
+      </c>
+      <c r="E21">
+        <v>139.7666666666664</v>
+      </c>
+      <c r="G21">
+        <v>139.0199999999997</v>
+      </c>
+      <c r="H21">
+        <v>139.70666666666639</v>
+      </c>
+      <c r="J21">
+        <v>140.67333333333312</v>
+      </c>
+      <c r="K21">
+        <v>141.34666666666641</v>
+      </c>
+      <c r="M21">
+        <v>49.747619047619004</v>
+      </c>
+      <c r="N21">
+        <v>49.45555555555552</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2877,29 +2881,29 @@
       <c r="B22" s="1">
         <v>-52.5</v>
       </c>
-      <c r="D22" s="1">
-        <v>146.0516667</v>
-      </c>
-      <c r="E22" s="1">
-        <v>142.38166670000001</v>
-      </c>
-      <c r="G22" s="1">
-        <v>142.6240741</v>
-      </c>
-      <c r="H22" s="1">
-        <v>146.43518520000001</v>
-      </c>
-      <c r="J22" s="1">
-        <v>145.16499999999999</v>
-      </c>
-      <c r="K22" s="1">
-        <v>144.23500000000001</v>
-      </c>
-      <c r="M22" s="1">
-        <v>52.026666669999997</v>
-      </c>
-      <c r="N22" s="1">
-        <v>52.613333330000003</v>
+      <c r="D22">
+        <v>146.31333333333291</v>
+      </c>
+      <c r="E22">
+        <v>147.15999999999957</v>
+      </c>
+      <c r="G22">
+        <v>146.45999999999972</v>
+      </c>
+      <c r="H22">
+        <v>147.1599999999998</v>
+      </c>
+      <c r="J22">
+        <v>147.82666666666628</v>
+      </c>
+      <c r="K22">
+        <v>148.45333333333303</v>
+      </c>
+      <c r="M22">
+        <v>52.319047619047559</v>
+      </c>
+      <c r="N22">
+        <v>51.81111111111106</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2909,29 +2913,29 @@
       <c r="B23" s="1">
         <v>-55</v>
       </c>
-      <c r="D23" s="1">
-        <v>153.17833329999999</v>
-      </c>
-      <c r="E23" s="1">
-        <v>148.97499999999999</v>
-      </c>
-      <c r="G23" s="1">
-        <v>149.6240741</v>
-      </c>
-      <c r="H23" s="1">
-        <v>153.25740740000001</v>
-      </c>
-      <c r="J23" s="1">
-        <v>151.82</v>
-      </c>
-      <c r="K23" s="1">
-        <v>151.08000000000001</v>
-      </c>
-      <c r="M23" s="1">
-        <v>54.878333329999997</v>
-      </c>
-      <c r="N23" s="1">
-        <v>55.128333329999997</v>
+      <c r="D23">
+        <v>153.4466666666664</v>
+      </c>
+      <c r="E23">
+        <v>154.4599999999997</v>
+      </c>
+      <c r="G23">
+        <v>153.83999999999969</v>
+      </c>
+      <c r="H23">
+        <v>154.37333333333282</v>
+      </c>
+      <c r="J23">
+        <v>154.84666666666629</v>
+      </c>
+      <c r="K23">
+        <v>155.29999999999959</v>
+      </c>
+      <c r="M23">
+        <v>54.928571428571374</v>
+      </c>
+      <c r="N23">
+        <v>54.499999999999957</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2941,29 +2945,29 @@
       <c r="B24" s="1">
         <v>-57.5</v>
       </c>
-      <c r="D24" s="1">
-        <v>159.94999999999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>155.69</v>
-      </c>
-      <c r="G24" s="1">
-        <v>156.71851849999999</v>
-      </c>
-      <c r="H24" s="1">
-        <v>159.88148150000001</v>
-      </c>
-      <c r="J24" s="1">
-        <v>158.655</v>
-      </c>
-      <c r="K24" s="1">
-        <v>157.6716667</v>
-      </c>
-      <c r="M24" s="1">
-        <v>57.048333329999998</v>
-      </c>
-      <c r="N24" s="1">
-        <v>57.958333330000002</v>
+      <c r="D24">
+        <v>160.61999999999972</v>
+      </c>
+      <c r="E24">
+        <v>161.6066666666664</v>
+      </c>
+      <c r="G24">
+        <v>161.05333333333311</v>
+      </c>
+      <c r="H24">
+        <v>161.46666666666641</v>
+      </c>
+      <c r="J24">
+        <v>161.62666666666627</v>
+      </c>
+      <c r="K24">
+        <v>162.12666666666638</v>
+      </c>
+      <c r="M24">
+        <v>57.547619047618994</v>
+      </c>
+      <c r="N24">
+        <v>57.011111111111063</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2973,29 +2977,29 @@
       <c r="B25" s="1">
         <v>-60</v>
       </c>
-      <c r="D25" s="1">
-        <v>166.16</v>
-      </c>
-      <c r="E25" s="1">
-        <v>162.72</v>
-      </c>
-      <c r="G25" s="1">
-        <v>163.2759259</v>
-      </c>
-      <c r="H25" s="1">
-        <v>166.96111110000001</v>
-      </c>
-      <c r="J25" s="1">
-        <v>165.05666669999999</v>
-      </c>
-      <c r="K25" s="1">
-        <v>164.63666670000001</v>
-      </c>
-      <c r="M25" s="1">
-        <v>59.541666669999998</v>
-      </c>
-      <c r="N25" s="1">
-        <v>60.67166667</v>
+      <c r="D25">
+        <v>167.49999999999972</v>
+      </c>
+      <c r="E25">
+        <v>168.553333333333</v>
+      </c>
+      <c r="G25">
+        <v>168.113333333333</v>
+      </c>
+      <c r="H25">
+        <v>168.37333333333314</v>
+      </c>
+      <c r="J25">
+        <v>168.38666666666629</v>
+      </c>
+      <c r="K25">
+        <v>168.89333333333298</v>
+      </c>
+      <c r="M25">
+        <v>60.223809523809472</v>
+      </c>
+      <c r="N25">
+        <v>59.499999999999964</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3005,29 +3009,29 @@
       <c r="B26" s="1">
         <v>-62.5</v>
       </c>
-      <c r="D26" s="1">
-        <v>172.54499999999999</v>
-      </c>
-      <c r="E26" s="1">
-        <v>169.7283333</v>
-      </c>
-      <c r="G26" s="1">
-        <v>169.78148150000001</v>
-      </c>
-      <c r="H26" s="1">
-        <v>174.1074074</v>
-      </c>
-      <c r="J26" s="1">
-        <v>172.14833329999999</v>
-      </c>
-      <c r="K26" s="1">
-        <v>170.7983333</v>
-      </c>
-      <c r="M26" s="1">
-        <v>62.463333329999998</v>
-      </c>
-      <c r="N26" s="1">
-        <v>62.936666670000001</v>
+      <c r="D26">
+        <v>174.28666666666629</v>
+      </c>
+      <c r="E26">
+        <v>175.4666666666663</v>
+      </c>
+      <c r="G26">
+        <v>175.03999999999962</v>
+      </c>
+      <c r="H26">
+        <v>175.15333333333291</v>
+      </c>
+      <c r="J26">
+        <v>175.23333333333289</v>
+      </c>
+      <c r="K26">
+        <v>175.73999999999972</v>
+      </c>
+      <c r="M26">
+        <v>62.704761904761845</v>
+      </c>
+      <c r="N26">
+        <v>61.822222222222173</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3037,29 +3041,29 @@
       <c r="B27" s="1">
         <v>-65</v>
       </c>
-      <c r="D27" s="1">
-        <v>179.28</v>
-      </c>
-      <c r="E27" s="1">
-        <v>176.58</v>
-      </c>
-      <c r="G27" s="1">
-        <v>176.43333329999999</v>
-      </c>
-      <c r="H27" s="1">
-        <v>180.49259259999999</v>
-      </c>
-      <c r="J27" s="1">
-        <v>178.35666670000001</v>
-      </c>
-      <c r="K27" s="1">
-        <v>178.00333330000001</v>
-      </c>
-      <c r="M27" s="1">
-        <v>64.894999999999996</v>
-      </c>
-      <c r="N27" s="1">
-        <v>65.618333329999999</v>
+      <c r="D27">
+        <v>180.97999999999962</v>
+      </c>
+      <c r="E27">
+        <v>182.2533333333331</v>
+      </c>
+      <c r="G27">
+        <v>181.87333333333288</v>
+      </c>
+      <c r="H27">
+        <v>181.77333333333303</v>
+      </c>
+      <c r="J27">
+        <v>181.84666666666641</v>
+      </c>
+      <c r="K27">
+        <v>182.65999999999968</v>
+      </c>
+      <c r="M27">
+        <v>65.128571428571377</v>
+      </c>
+      <c r="N27">
+        <v>63.855555555555497</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3069,29 +3073,29 @@
       <c r="B28" s="1">
         <v>-67.5</v>
       </c>
-      <c r="D28" s="1">
-        <v>185.89833329999999</v>
-      </c>
-      <c r="E28" s="1">
-        <v>182.94166670000001</v>
-      </c>
-      <c r="G28" s="1">
-        <v>182.8648148</v>
-      </c>
-      <c r="H28" s="1">
-        <v>187.06851850000001</v>
-      </c>
-      <c r="J28" s="1">
-        <v>184.7716667</v>
-      </c>
-      <c r="K28" s="1">
-        <v>184.875</v>
-      </c>
-      <c r="M28" s="1">
-        <v>67.525000000000006</v>
-      </c>
-      <c r="N28" s="1">
-        <v>67.881666670000001</v>
+      <c r="D28">
+        <v>187.69333333333287</v>
+      </c>
+      <c r="E28">
+        <v>188.98666666666631</v>
+      </c>
+      <c r="G28">
+        <v>188.45333333333298</v>
+      </c>
+      <c r="H28">
+        <v>188.59999999999971</v>
+      </c>
+      <c r="J28">
+        <v>188.54666666666628</v>
+      </c>
+      <c r="K28">
+        <v>189.62666666666632</v>
+      </c>
+      <c r="M28">
+        <v>67.471428571428532</v>
+      </c>
+      <c r="N28">
+        <v>66.488888888888852</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3101,29 +3105,29 @@
       <c r="B29" s="1">
         <v>-70</v>
       </c>
-      <c r="D29" s="1">
-        <v>192.24833330000001</v>
-      </c>
-      <c r="E29" s="1">
-        <v>189.4183333</v>
-      </c>
-      <c r="G29" s="1">
-        <v>189.38148150000001</v>
-      </c>
-      <c r="H29" s="1">
-        <v>193.7148148</v>
-      </c>
-      <c r="J29" s="1">
-        <v>191.97</v>
-      </c>
-      <c r="K29" s="1">
-        <v>191.1033333</v>
-      </c>
-      <c r="M29" s="1">
-        <v>69.894999999999996</v>
-      </c>
-      <c r="N29" s="1">
-        <v>70.358333329999994</v>
+      <c r="D29">
+        <v>194.33333333333297</v>
+      </c>
+      <c r="E29">
+        <v>195.54666666666623</v>
+      </c>
+      <c r="G29">
+        <v>195.09999999999971</v>
+      </c>
+      <c r="H29">
+        <v>195.34666666666629</v>
+      </c>
+      <c r="J29">
+        <v>195.333333333333</v>
+      </c>
+      <c r="K29">
+        <v>196.23999999999972</v>
+      </c>
+      <c r="M29">
+        <v>70.004761904761864</v>
+      </c>
+      <c r="N29">
+        <v>68.877777777777737</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3133,29 +3137,29 @@
       <c r="B30" s="1">
         <v>-72.5</v>
       </c>
-      <c r="D30" s="1">
-        <v>198.73</v>
-      </c>
-      <c r="E30" s="1">
-        <v>196.21</v>
-      </c>
-      <c r="G30" s="1">
-        <v>195.77222219999999</v>
-      </c>
-      <c r="H30" s="1">
-        <v>200.4648148</v>
-      </c>
-      <c r="J30" s="1">
-        <v>198.33666669999999</v>
-      </c>
-      <c r="K30" s="1">
-        <v>197.55666669999999</v>
-      </c>
-      <c r="M30" s="1">
-        <v>72.463333329999998</v>
-      </c>
-      <c r="N30" s="1">
-        <v>72.796666669999993</v>
+      <c r="D30">
+        <v>200.95999999999958</v>
+      </c>
+      <c r="E30">
+        <v>202.17333333333303</v>
+      </c>
+      <c r="G30">
+        <v>201.67333333333309</v>
+      </c>
+      <c r="H30">
+        <v>202.11999999999961</v>
+      </c>
+      <c r="J30">
+        <v>202.053333333333</v>
+      </c>
+      <c r="K30">
+        <v>202.68666666666627</v>
+      </c>
+      <c r="M30">
+        <v>72.461904761904719</v>
+      </c>
+      <c r="N30">
+        <v>71.488888888888852</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3165,29 +3169,29 @@
       <c r="B31" s="1">
         <v>-75</v>
       </c>
-      <c r="D31" s="1">
-        <v>205.18833330000001</v>
-      </c>
-      <c r="E31" s="1">
-        <v>202.3916667</v>
-      </c>
-      <c r="G31" s="1">
-        <v>201.52407410000001</v>
-      </c>
-      <c r="H31" s="1">
-        <v>207.20185190000001</v>
-      </c>
-      <c r="J31" s="1">
-        <v>204.55500000000001</v>
-      </c>
-      <c r="K31" s="1">
-        <v>204.14500000000001</v>
-      </c>
-      <c r="M31" s="1">
-        <v>74.993333329999999</v>
-      </c>
-      <c r="N31" s="1">
-        <v>75.046666669999993</v>
+      <c r="D31">
+        <v>207.47333333333307</v>
+      </c>
+      <c r="E31">
+        <v>208.73999999999984</v>
+      </c>
+      <c r="G31">
+        <v>208.31333333333299</v>
+      </c>
+      <c r="H31">
+        <v>208.56666666666652</v>
+      </c>
+      <c r="J31">
+        <v>208.58666666666642</v>
+      </c>
+      <c r="K31">
+        <v>209.42666666666628</v>
+      </c>
+      <c r="M31">
+        <v>75.176190476190442</v>
+      </c>
+      <c r="N31">
+        <v>74.17777777777772</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3197,29 +3201,29 @@
       <c r="B32" s="1">
         <v>-77.5</v>
       </c>
-      <c r="D32" s="1">
-        <v>211.3616667</v>
-      </c>
-      <c r="E32" s="1">
-        <v>208.70500000000001</v>
-      </c>
-      <c r="G32" s="1">
-        <v>207.81111110000001</v>
-      </c>
-      <c r="H32" s="1">
-        <v>213.57407409999999</v>
-      </c>
-      <c r="J32" s="1">
-        <v>210.4266667</v>
-      </c>
-      <c r="K32" s="1">
-        <v>210.5</v>
-      </c>
-      <c r="M32" s="1">
-        <v>77.676666670000003</v>
-      </c>
-      <c r="N32" s="1">
-        <v>77.403333329999995</v>
+      <c r="D32">
+        <v>213.7933333333329</v>
+      </c>
+      <c r="E32">
+        <v>215.12666666666627</v>
+      </c>
+      <c r="G32">
+        <v>214.71999999999966</v>
+      </c>
+      <c r="H32">
+        <v>214.76666666666628</v>
+      </c>
+      <c r="J32">
+        <v>215.20666666666639</v>
+      </c>
+      <c r="K32">
+        <v>215.79333333333301</v>
+      </c>
+      <c r="M32">
+        <v>77.647619047619017</v>
+      </c>
+      <c r="N32">
+        <v>76.69999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3229,29 +3233,29 @@
       <c r="B33" s="1">
         <v>-80</v>
       </c>
-      <c r="D33" s="1">
-        <v>217.31166669999999</v>
-      </c>
-      <c r="E33" s="1">
-        <v>215.26166670000001</v>
-      </c>
-      <c r="G33" s="1">
-        <v>213.6518519</v>
-      </c>
-      <c r="H33" s="1">
-        <v>220.14814809999999</v>
-      </c>
-      <c r="J33" s="1">
-        <v>216.84166669999999</v>
-      </c>
-      <c r="K33" s="1">
-        <v>216.625</v>
-      </c>
-      <c r="M33" s="1">
-        <v>79.89833333</v>
-      </c>
-      <c r="N33" s="1">
-        <v>80.14833333</v>
+      <c r="D33">
+        <v>220.19999999999973</v>
+      </c>
+      <c r="E33">
+        <v>221.62666666666627</v>
+      </c>
+      <c r="G33">
+        <v>220.75999999999971</v>
+      </c>
+      <c r="H33">
+        <v>221.14666666666625</v>
+      </c>
+      <c r="J33">
+        <v>221.3599999999995</v>
+      </c>
+      <c r="K33">
+        <v>221.99999999999949</v>
+      </c>
+      <c r="M33">
+        <v>80.052380952380929</v>
+      </c>
+      <c r="N33">
+        <v>79.255555555555503</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3261,29 +3265,29 @@
       <c r="B34" s="1">
         <v>-82.5</v>
       </c>
-      <c r="D34" s="1">
-        <v>223.76166670000001</v>
-      </c>
-      <c r="E34" s="1">
-        <v>221.2716667</v>
-      </c>
-      <c r="G34" s="1">
-        <v>220.2222222</v>
-      </c>
-      <c r="H34" s="1">
-        <v>226.0814815</v>
-      </c>
-      <c r="J34" s="1">
-        <v>222.785</v>
-      </c>
-      <c r="K34" s="1">
-        <v>222.84833330000001</v>
-      </c>
-      <c r="M34" s="1">
-        <v>82.468333329999993</v>
-      </c>
-      <c r="N34" s="1">
-        <v>82.598333330000003</v>
+      <c r="D34">
+        <v>226.78666666666632</v>
+      </c>
+      <c r="E34">
+        <v>227.79999999999967</v>
+      </c>
+      <c r="G34">
+        <v>227.23333333333289</v>
+      </c>
+      <c r="H34">
+        <v>227.4999999999996</v>
+      </c>
+      <c r="J34">
+        <v>227.82666666666643</v>
+      </c>
+      <c r="K34">
+        <v>228.53333333333302</v>
+      </c>
+      <c r="M34">
+        <v>82.671428571428535</v>
+      </c>
+      <c r="N34">
+        <v>81.411111111111069</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3293,29 +3297,29 @@
       <c r="B35" s="1">
         <v>-85</v>
       </c>
-      <c r="D35" s="1">
-        <v>229.6716667</v>
-      </c>
-      <c r="E35" s="1">
-        <v>227.315</v>
-      </c>
-      <c r="G35" s="1">
-        <v>225.91481479999999</v>
-      </c>
-      <c r="H35" s="1">
-        <v>232.44074069999999</v>
-      </c>
-      <c r="J35" s="1">
-        <v>228.93166669999999</v>
-      </c>
-      <c r="K35" s="1">
-        <v>228.58833329999999</v>
-      </c>
-      <c r="M35" s="1">
-        <v>84.88</v>
-      </c>
-      <c r="N35" s="1">
-        <v>84.986666670000005</v>
+      <c r="D35">
+        <v>233.28666666666618</v>
+      </c>
+      <c r="E35">
+        <v>233.82666666666628</v>
+      </c>
+      <c r="G35">
+        <v>233.44666666666632</v>
+      </c>
+      <c r="H35">
+        <v>233.62666666666632</v>
+      </c>
+      <c r="J35">
+        <v>234.30666666666633</v>
+      </c>
+      <c r="K35">
+        <v>234.89999999999981</v>
+      </c>
+      <c r="M35">
+        <v>85.19999999999996</v>
+      </c>
+      <c r="N35">
+        <v>84.155555555555523</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3325,29 +3329,29 @@
       <c r="B36" s="1">
         <v>-87.5</v>
       </c>
-      <c r="D36" s="1">
-        <v>236.17500000000001</v>
-      </c>
-      <c r="E36" s="1">
-        <v>233.065</v>
-      </c>
-      <c r="G36" s="1">
-        <v>231.65</v>
-      </c>
-      <c r="H36" s="1">
-        <v>238.16481479999999</v>
-      </c>
-      <c r="J36" s="1">
-        <v>234.74</v>
-      </c>
-      <c r="K36" s="1">
-        <v>234.44666670000001</v>
-      </c>
-      <c r="M36" s="1">
-        <v>87.52</v>
-      </c>
-      <c r="N36" s="1">
-        <v>87.48</v>
+      <c r="D36">
+        <v>239.41999999999976</v>
+      </c>
+      <c r="E36">
+        <v>239.94666666666643</v>
+      </c>
+      <c r="G36">
+        <v>239.63333333333307</v>
+      </c>
+      <c r="H36">
+        <v>239.80666666666622</v>
+      </c>
+      <c r="J36">
+        <v>240.30666666666639</v>
+      </c>
+      <c r="K36">
+        <v>240.66666666666637</v>
+      </c>
+      <c r="M36">
+        <v>87.58095238095234</v>
+      </c>
+      <c r="N36">
+        <v>86.644444444444389</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3357,29 +3361,29 @@
       <c r="B37" s="1">
         <v>-90</v>
       </c>
-      <c r="D37" s="1">
-        <v>241.27833330000001</v>
-      </c>
-      <c r="E37" s="1">
-        <v>239.0083333</v>
-      </c>
-      <c r="G37" s="1">
-        <v>237.38888890000001</v>
-      </c>
-      <c r="H37" s="1">
-        <v>243.3666667</v>
-      </c>
-      <c r="J37" s="1">
-        <v>239.95</v>
-      </c>
-      <c r="K37" s="1">
-        <v>240.03666670000001</v>
-      </c>
-      <c r="M37" s="1">
-        <v>90.233333329999994</v>
-      </c>
-      <c r="N37" s="1">
-        <v>89.986666670000005</v>
+      <c r="D37">
+        <v>245.25333333333302</v>
+      </c>
+      <c r="E37">
+        <v>246.12666666666638</v>
+      </c>
+      <c r="G37">
+        <v>245.90666666666621</v>
+      </c>
+      <c r="H37">
+        <v>245.57999999999964</v>
+      </c>
+      <c r="J37">
+        <v>246.25999999999948</v>
+      </c>
+      <c r="K37">
+        <v>246.71999999999971</v>
+      </c>
+      <c r="M37">
+        <v>89.919047619047575</v>
+      </c>
+      <c r="N37">
+        <v>89.022222222222197</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3389,29 +3393,29 @@
       <c r="B38" s="1">
         <v>-92.5</v>
       </c>
-      <c r="D38" s="1">
-        <v>246.875</v>
-      </c>
-      <c r="E38" s="1">
-        <v>244.0783333</v>
-      </c>
-      <c r="G38" s="1">
-        <v>242.8740741</v>
-      </c>
-      <c r="H38" s="1">
-        <v>248.562963</v>
-      </c>
-      <c r="J38" s="1">
-        <v>245.19</v>
-      </c>
-      <c r="K38" s="1">
-        <v>245.73</v>
-      </c>
-      <c r="M38" s="1">
-        <v>93.021666670000002</v>
-      </c>
-      <c r="N38" s="1">
-        <v>92.671666669999993</v>
+      <c r="D38">
+        <v>250.80666666666639</v>
+      </c>
+      <c r="E38">
+        <v>251.42666666666642</v>
+      </c>
+      <c r="G38">
+        <v>251.933333333333</v>
+      </c>
+      <c r="H38">
+        <v>251.39999999999958</v>
+      </c>
+      <c r="J38">
+        <v>251.77999999999975</v>
+      </c>
+      <c r="K38">
+        <v>252.43999999999951</v>
+      </c>
+      <c r="M38">
+        <v>92.447619047619</v>
+      </c>
+      <c r="N38">
+        <v>91.4444444444444</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3421,29 +3425,29 @@
       <c r="B39" s="1">
         <v>-95</v>
       </c>
-      <c r="D39" s="1">
-        <v>251.86833329999999</v>
-      </c>
-      <c r="E39" s="1">
-        <v>249.8583333</v>
-      </c>
-      <c r="G39" s="1">
-        <v>248.05925930000001</v>
-      </c>
-      <c r="H39" s="1">
-        <v>253.15555560000001</v>
-      </c>
-      <c r="J39" s="1">
-        <v>250.44166670000001</v>
-      </c>
-      <c r="K39" s="1">
-        <v>251.065</v>
-      </c>
-      <c r="M39" s="1">
-        <v>95.47666667</v>
-      </c>
-      <c r="N39" s="1">
-        <v>95.21</v>
+      <c r="D39">
+        <v>255.95333333333292</v>
+      </c>
+      <c r="E39">
+        <v>257.14666666666625</v>
+      </c>
+      <c r="G39">
+        <v>257.55333333333311</v>
+      </c>
+      <c r="H39">
+        <v>257.12666666666638</v>
+      </c>
+      <c r="J39">
+        <v>256.86666666666622</v>
+      </c>
+      <c r="K39">
+        <v>258.19333333333327</v>
+      </c>
+      <c r="M39">
+        <v>94.833333333333329</v>
+      </c>
+      <c r="N39">
+        <v>94.033333333333289</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3453,29 +3457,29 @@
       <c r="B40" s="1">
         <v>-97.5</v>
       </c>
-      <c r="D40" s="1">
-        <v>256.3666667</v>
-      </c>
-      <c r="E40" s="1">
-        <v>255</v>
-      </c>
-      <c r="G40" s="1">
-        <v>253.09629630000001</v>
-      </c>
-      <c r="H40" s="1">
-        <v>258.00740739999998</v>
-      </c>
-      <c r="J40" s="1">
-        <v>255.465</v>
-      </c>
-      <c r="K40" s="1">
-        <v>255.41499999999999</v>
-      </c>
-      <c r="M40" s="1">
-        <v>97.753333330000004</v>
-      </c>
-      <c r="N40" s="1">
-        <v>97.606666669999996</v>
+      <c r="D40">
+        <v>260.77999999999963</v>
+      </c>
+      <c r="E40">
+        <v>262.49999999999972</v>
+      </c>
+      <c r="G40">
+        <v>263.05333333333294</v>
+      </c>
+      <c r="H40">
+        <v>262.61999999999961</v>
+      </c>
+      <c r="J40">
+        <v>262.39999999999969</v>
+      </c>
+      <c r="K40">
+        <v>263.75333333333299</v>
+      </c>
+      <c r="M40">
+        <v>97.290476190476141</v>
+      </c>
+      <c r="N40">
+        <v>96.566666666666606</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3485,29 +3489,29 @@
       <c r="B41" s="1">
         <v>-100</v>
       </c>
-      <c r="D41" s="1">
-        <v>261.01166669999998</v>
-      </c>
-      <c r="E41" s="1">
-        <v>259.26166669999998</v>
-      </c>
-      <c r="G41" s="1">
-        <v>258.05925930000001</v>
-      </c>
-      <c r="H41" s="1">
-        <v>262.36296299999998</v>
-      </c>
-      <c r="J41" s="1">
-        <v>259.98</v>
-      </c>
-      <c r="K41" s="1">
-        <v>260.55333330000002</v>
-      </c>
-      <c r="M41" s="1">
-        <v>100.2583333</v>
-      </c>
-      <c r="N41" s="1">
-        <v>100.1483333</v>
+      <c r="D41">
+        <v>266.30666666666639</v>
+      </c>
+      <c r="E41">
+        <v>267.85999999999962</v>
+      </c>
+      <c r="G41">
+        <v>267.35333333333301</v>
+      </c>
+      <c r="H41">
+        <v>267.69333333333304</v>
+      </c>
+      <c r="J41">
+        <v>267.35999999999984</v>
+      </c>
+      <c r="K41">
+        <v>268.70666666666631</v>
+      </c>
+      <c r="M41">
+        <v>99.785714285714135</v>
+      </c>
+      <c r="N41">
+        <v>98.911111111110785</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3517,29 +3521,29 @@
       <c r="B42" s="1">
         <v>-92.5</v>
       </c>
-      <c r="D42" s="1">
-        <v>264.69499999999999</v>
-      </c>
-      <c r="E42" s="1">
-        <v>263.55833330000002</v>
-      </c>
-      <c r="G42" s="1">
-        <v>262.36481479999998</v>
-      </c>
-      <c r="H42" s="1">
-        <v>266.25740739999998</v>
-      </c>
-      <c r="J42" s="1">
-        <v>264.17</v>
-      </c>
-      <c r="K42" s="1">
-        <v>264.54333329999997</v>
-      </c>
-      <c r="M42" s="1">
-        <v>102.7133333</v>
-      </c>
-      <c r="N42" s="1">
-        <v>102.8733333</v>
+      <c r="D42">
+        <v>271.32666666666648</v>
+      </c>
+      <c r="E42">
+        <v>272.41999999999962</v>
+      </c>
+      <c r="G42">
+        <v>271.87333333333299</v>
+      </c>
+      <c r="H42">
+        <v>271.6399999999997</v>
+      </c>
+      <c r="J42">
+        <v>271.15999999999951</v>
+      </c>
+      <c r="K42">
+        <v>272.58666666666619</v>
+      </c>
+      <c r="M42">
+        <v>102.2476190476185</v>
+      </c>
+      <c r="N42">
+        <v>101.64444444444416</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3549,29 +3553,29 @@
       <c r="B43" s="1">
         <v>-85</v>
       </c>
-      <c r="D43" s="1">
-        <v>267.99</v>
-      </c>
-      <c r="E43" s="1">
-        <v>267.05</v>
-      </c>
-      <c r="G43" s="1">
-        <v>265.92407409999998</v>
-      </c>
-      <c r="H43" s="1">
-        <v>269.0981481</v>
-      </c>
-      <c r="J43" s="1">
-        <v>267.82166669999998</v>
-      </c>
-      <c r="K43" s="1">
-        <v>268.34500000000003</v>
-      </c>
-      <c r="M43" s="1">
-        <v>105.3</v>
-      </c>
-      <c r="N43" s="1">
-        <v>105.64</v>
+      <c r="D43">
+        <v>275.38666666666643</v>
+      </c>
+      <c r="E43">
+        <v>276.59333333333291</v>
+      </c>
+      <c r="G43">
+        <v>275.80666666666639</v>
+      </c>
+      <c r="H43">
+        <v>275.93333333333328</v>
+      </c>
+      <c r="J43">
+        <v>274.31333333333305</v>
+      </c>
+      <c r="K43">
+        <v>276.44666666666626</v>
+      </c>
+      <c r="M43">
+        <v>104.41904761904721</v>
+      </c>
+      <c r="N43">
+        <v>104.34444444444391</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3581,29 +3585,29 @@
       <c r="B44" s="1">
         <v>-77.5</v>
       </c>
-      <c r="D44" s="1">
-        <v>270.75166669999999</v>
-      </c>
-      <c r="E44" s="1">
-        <v>270.07499999999999</v>
-      </c>
-      <c r="G44" s="1">
-        <v>269.12407409999997</v>
-      </c>
-      <c r="H44" s="1">
-        <v>271.69814810000003</v>
-      </c>
-      <c r="J44" s="1">
-        <v>270.96333329999999</v>
-      </c>
-      <c r="K44" s="1">
-        <v>271.58999999999997</v>
-      </c>
-      <c r="M44" s="1">
-        <v>107.67</v>
-      </c>
-      <c r="N44" s="1">
-        <v>108.0433333</v>
+      <c r="D44">
+        <v>278.493333333333</v>
+      </c>
+      <c r="E44">
+        <v>279.79333333333295</v>
+      </c>
+      <c r="G44">
+        <v>278.81333333333299</v>
+      </c>
+      <c r="H44">
+        <v>279.27333333333291</v>
+      </c>
+      <c r="J44">
+        <v>277.59333333333302</v>
+      </c>
+      <c r="K44">
+        <v>279.53333333333308</v>
+      </c>
+      <c r="M44">
+        <v>106.7380952380947</v>
+      </c>
+      <c r="N44">
+        <v>106.87777777777731</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3613,29 +3617,29 @@
       <c r="B45" s="1">
         <v>-70</v>
       </c>
-      <c r="D45" s="1">
-        <v>272.18</v>
-      </c>
-      <c r="E45" s="1">
-        <v>272.34666670000001</v>
-      </c>
-      <c r="G45" s="1">
-        <v>271.82407410000002</v>
-      </c>
-      <c r="H45" s="1">
-        <v>273.93888889999999</v>
-      </c>
-      <c r="J45" s="1">
-        <v>273.18833330000001</v>
-      </c>
-      <c r="K45" s="1">
-        <v>273.39833329999999</v>
-      </c>
-      <c r="M45" s="1">
-        <v>110.375</v>
-      </c>
-      <c r="N45" s="1">
-        <v>110.345</v>
+      <c r="D45">
+        <v>280.25999999999976</v>
+      </c>
+      <c r="E45">
+        <v>281.4199999999995</v>
+      </c>
+      <c r="G45">
+        <v>281.25999999999971</v>
+      </c>
+      <c r="H45">
+        <v>281.11999999999978</v>
+      </c>
+      <c r="J45">
+        <v>280.15999999999968</v>
+      </c>
+      <c r="K45">
+        <v>281.42666666666634</v>
+      </c>
+      <c r="M45">
+        <v>109.14285714285661</v>
+      </c>
+      <c r="N45">
+        <v>109.2111111111105</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3645,29 +3649,29 @@
       <c r="B46" s="1">
         <v>-62.5</v>
       </c>
-      <c r="D46" s="1">
-        <v>273.67833330000002</v>
-      </c>
-      <c r="E46" s="1">
-        <v>273.91500000000002</v>
-      </c>
-      <c r="G46" s="1">
-        <v>273.68518519999998</v>
-      </c>
-      <c r="H46" s="1">
-        <v>275.11481479999998</v>
-      </c>
-      <c r="J46" s="1">
-        <v>274.49</v>
-      </c>
-      <c r="K46" s="1">
-        <v>274.64333329999999</v>
-      </c>
-      <c r="M46" s="1">
-        <v>112.80500000000001</v>
-      </c>
-      <c r="N46" s="1">
-        <v>112.895</v>
+      <c r="D46">
+        <v>281.36666666666645</v>
+      </c>
+      <c r="E46">
+        <v>282.55333333333317</v>
+      </c>
+      <c r="G46">
+        <v>282.79333333333312</v>
+      </c>
+      <c r="H46">
+        <v>282.71333333333331</v>
+      </c>
+      <c r="J46">
+        <v>280.55999999999966</v>
+      </c>
+      <c r="K46">
+        <v>282.03333333333319</v>
+      </c>
+      <c r="M46">
+        <v>111.57142857142821</v>
+      </c>
+      <c r="N46">
+        <v>111.7777777777774</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3677,29 +3681,29 @@
       <c r="B47" s="1">
         <v>-55</v>
       </c>
-      <c r="D47" s="1">
-        <v>274.48833330000002</v>
-      </c>
-      <c r="E47" s="1">
-        <v>274.66500000000002</v>
-      </c>
-      <c r="G47" s="1">
-        <v>274.28888890000002</v>
-      </c>
-      <c r="H47" s="1">
-        <v>275.62962959999999</v>
-      </c>
-      <c r="J47" s="1">
-        <v>275.20166669999998</v>
-      </c>
-      <c r="K47" s="1">
-        <v>275.43833330000001</v>
-      </c>
-      <c r="M47" s="1">
-        <v>115.33499999999999</v>
-      </c>
-      <c r="N47" s="1">
-        <v>115.58499999999999</v>
+      <c r="D47">
+        <v>282.29333333333318</v>
+      </c>
+      <c r="E47">
+        <v>282.09333333333325</v>
+      </c>
+      <c r="G47">
+        <v>282.69999999999982</v>
+      </c>
+      <c r="H47">
+        <v>282.7266666666664</v>
+      </c>
+      <c r="J47">
+        <v>280.65999999999957</v>
+      </c>
+      <c r="K47">
+        <v>281.97999999999979</v>
+      </c>
+      <c r="M47">
+        <v>114.03333333333289</v>
+      </c>
+      <c r="N47">
+        <v>114.555555555555</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3709,29 +3713,29 @@
       <c r="B48" s="1">
         <v>-47.5</v>
       </c>
-      <c r="D48" s="1">
-        <v>274.20833329999999</v>
-      </c>
-      <c r="E48" s="1">
-        <v>275.19166669999998</v>
-      </c>
-      <c r="G48" s="1">
-        <v>274.81666669999998</v>
-      </c>
-      <c r="H48" s="1">
-        <v>274.92407409999998</v>
-      </c>
-      <c r="J48" s="1">
-        <v>275.13666669999998</v>
-      </c>
-      <c r="K48" s="1">
-        <v>275.27</v>
-      </c>
-      <c r="M48" s="1">
-        <v>117.99666670000001</v>
-      </c>
-      <c r="N48" s="1">
-        <v>117.9566667</v>
+      <c r="D48">
+        <v>281.25999999999982</v>
+      </c>
+      <c r="E48">
+        <v>281.21333333333314</v>
+      </c>
+      <c r="G48">
+        <v>281.49999999999989</v>
+      </c>
+      <c r="H48">
+        <v>281.49999999999989</v>
+      </c>
+      <c r="J48">
+        <v>280.2133333333332</v>
+      </c>
+      <c r="K48">
+        <v>281.11333333333323</v>
+      </c>
+      <c r="M48">
+        <v>116.58571428571381</v>
+      </c>
+      <c r="N48">
+        <v>117.23333333333281</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3741,29 +3745,29 @@
       <c r="B49" s="1">
         <v>-40</v>
       </c>
-      <c r="D49" s="1">
-        <v>273.19333330000001</v>
-      </c>
-      <c r="E49" s="1">
-        <v>274.88</v>
-      </c>
-      <c r="G49" s="1">
-        <v>274.44814810000003</v>
-      </c>
-      <c r="H49" s="1">
-        <v>273.96666670000002</v>
-      </c>
-      <c r="J49" s="1">
-        <v>274.67333330000002</v>
-      </c>
-      <c r="K49" s="1">
-        <v>274.75333330000001</v>
-      </c>
-      <c r="M49" s="1">
-        <v>120.4716667</v>
-      </c>
-      <c r="N49" s="1">
-        <v>120.6483333</v>
+      <c r="D49">
+        <v>279.3866666666666</v>
+      </c>
+      <c r="E49">
+        <v>279.39333333333332</v>
+      </c>
+      <c r="G49">
+        <v>279.72666666666657</v>
+      </c>
+      <c r="H49">
+        <v>279.65999999999991</v>
+      </c>
+      <c r="J49">
+        <v>278.64666666666648</v>
+      </c>
+      <c r="K49">
+        <v>279.19999999999993</v>
+      </c>
+      <c r="M49">
+        <v>119.10952380952349</v>
+      </c>
+      <c r="N49">
+        <v>119.66666666666622</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3773,29 +3777,29 @@
       <c r="B50" s="1">
         <v>-32.5</v>
       </c>
-      <c r="D50" s="1">
-        <v>272.01833329999999</v>
-      </c>
-      <c r="E50" s="1">
-        <v>273.8616667</v>
-      </c>
-      <c r="G50" s="1">
-        <v>274.01666669999997</v>
-      </c>
-      <c r="H50" s="1">
-        <v>272.73148149999997</v>
-      </c>
-      <c r="J50" s="1">
-        <v>273.64666670000003</v>
-      </c>
-      <c r="K50" s="1">
-        <v>273.62</v>
-      </c>
-      <c r="M50" s="1">
-        <v>122.9766667</v>
-      </c>
-      <c r="N50" s="1">
-        <v>123.4033333</v>
+      <c r="D50">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="E50">
+        <v>277.14666666666665</v>
+      </c>
+      <c r="G50">
+        <v>277.5</v>
+      </c>
+      <c r="H50">
+        <v>277.3</v>
+      </c>
+      <c r="J50">
+        <v>277.04666666666662</v>
+      </c>
+      <c r="K50">
+        <v>277.15333333333331</v>
+      </c>
+      <c r="M50">
+        <v>121.70952380952352</v>
+      </c>
+      <c r="N50">
+        <v>122.333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3805,29 +3809,29 @@
       <c r="B51" s="1">
         <v>-25</v>
       </c>
-      <c r="D51" s="1">
-        <v>270.5733333</v>
-      </c>
-      <c r="E51" s="1">
-        <v>272.85333329999997</v>
-      </c>
-      <c r="G51" s="1">
-        <v>272.40925929999997</v>
-      </c>
-      <c r="H51" s="1">
-        <v>271.50185190000002</v>
-      </c>
-      <c r="J51" s="1">
-        <v>272.40166670000002</v>
-      </c>
-      <c r="K51" s="1">
-        <v>271.88499999999999</v>
-      </c>
-      <c r="M51" s="1">
-        <v>125.6083333</v>
-      </c>
-      <c r="N51" s="1">
-        <v>125.87166670000001</v>
+      <c r="D51">
+        <v>274.67333333333329</v>
+      </c>
+      <c r="E51">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="G51">
+        <v>275</v>
+      </c>
+      <c r="H51">
+        <v>274.81333333333333</v>
+      </c>
+      <c r="J51">
+        <v>274.92666666666662</v>
+      </c>
+      <c r="K51">
+        <v>274.90666666666658</v>
+      </c>
+      <c r="M51">
+        <v>124.32857142857117</v>
+      </c>
+      <c r="N51">
+        <v>125.1666666666662</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3837,29 +3841,29 @@
       <c r="B52" s="1">
         <v>-17.5</v>
       </c>
-      <c r="D52" s="1">
-        <v>268.45999999999998</v>
-      </c>
-      <c r="E52" s="1">
-        <v>271.64666670000003</v>
-      </c>
-      <c r="G52" s="1">
-        <v>270.88703700000002</v>
-      </c>
-      <c r="H52" s="1">
-        <v>269.62407409999997</v>
-      </c>
-      <c r="J52" s="1">
-        <v>270.625</v>
-      </c>
-      <c r="K52" s="1">
-        <v>270.29500000000002</v>
-      </c>
-      <c r="M52" s="1">
-        <v>128.40833330000001</v>
-      </c>
-      <c r="N52" s="1">
-        <v>128.16499999999999</v>
+      <c r="D52">
+        <v>272.36666666666662</v>
+      </c>
+      <c r="E52">
+        <v>272.5</v>
+      </c>
+      <c r="G52">
+        <v>272.5</v>
+      </c>
+      <c r="H52">
+        <v>272.5</v>
+      </c>
+      <c r="J52">
+        <v>272.5</v>
+      </c>
+      <c r="K52">
+        <v>272.5</v>
+      </c>
+      <c r="M52">
+        <v>126.9285714285709</v>
+      </c>
+      <c r="N52">
+        <v>127.7111111111108</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3869,29 +3873,29 @@
       <c r="B53" s="1">
         <v>-10</v>
       </c>
-      <c r="D53" s="1">
-        <v>266.35833330000003</v>
-      </c>
-      <c r="E53" s="1">
-        <v>269.76166669999998</v>
-      </c>
-      <c r="G53" s="1">
-        <v>269.07777779999998</v>
-      </c>
-      <c r="H53" s="1">
-        <v>267.73703699999999</v>
-      </c>
-      <c r="J53" s="1">
-        <v>268.815</v>
-      </c>
-      <c r="K53" s="1">
-        <v>268.27833329999999</v>
-      </c>
-      <c r="M53" s="1">
-        <v>130.68333329999999</v>
-      </c>
-      <c r="N53" s="1">
-        <v>130.4833333</v>
+      <c r="D53">
+        <v>270</v>
+      </c>
+      <c r="E53">
+        <v>270</v>
+      </c>
+      <c r="G53">
+        <v>270</v>
+      </c>
+      <c r="H53">
+        <v>270</v>
+      </c>
+      <c r="J53">
+        <v>270</v>
+      </c>
+      <c r="K53">
+        <v>270</v>
+      </c>
+      <c r="M53">
+        <v>129.58571428571369</v>
+      </c>
+      <c r="N53">
+        <v>130.01111111111067</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3901,29 +3905,29 @@
       <c r="B54" s="1">
         <v>-2.5</v>
       </c>
-      <c r="D54" s="1">
-        <v>264.55833330000002</v>
-      </c>
-      <c r="E54" s="1">
-        <v>267.70166669999998</v>
-      </c>
-      <c r="G54" s="1">
-        <v>267.14074069999998</v>
-      </c>
-      <c r="H54" s="1">
-        <v>265.81481480000002</v>
-      </c>
-      <c r="J54" s="1">
-        <v>266.69666669999998</v>
-      </c>
-      <c r="K54" s="1">
-        <v>266.08999999999997</v>
-      </c>
-      <c r="M54" s="1">
-        <v>133.3016667</v>
-      </c>
-      <c r="N54" s="1">
-        <v>133.07166670000001</v>
+      <c r="D54">
+        <v>267.5</v>
+      </c>
+      <c r="E54">
+        <v>267.5</v>
+      </c>
+      <c r="G54">
+        <v>267.5</v>
+      </c>
+      <c r="H54">
+        <v>267.5</v>
+      </c>
+      <c r="J54">
+        <v>267.5</v>
+      </c>
+      <c r="K54">
+        <v>267.5</v>
+      </c>
+      <c r="M54">
+        <v>132.36666666666611</v>
+      </c>
+      <c r="N54">
+        <v>132.54444444444391</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3933,29 +3937,29 @@
       <c r="B55" s="1">
         <v>5</v>
       </c>
-      <c r="D55" s="1">
-        <v>262.59500000000003</v>
-      </c>
-      <c r="E55" s="1">
-        <v>265.32499999999999</v>
-      </c>
-      <c r="G55" s="1">
-        <v>265.12592590000003</v>
-      </c>
-      <c r="H55" s="1">
-        <v>263.72592589999999</v>
-      </c>
-      <c r="J55" s="1">
-        <v>264.7</v>
-      </c>
-      <c r="K55" s="1">
-        <v>263.91333329999998</v>
-      </c>
-      <c r="M55" s="1">
-        <v>135.72333330000001</v>
-      </c>
-      <c r="N55" s="1">
-        <v>135.49666669999999</v>
+      <c r="D55">
+        <v>265</v>
+      </c>
+      <c r="E55">
+        <v>265</v>
+      </c>
+      <c r="G55">
+        <v>265</v>
+      </c>
+      <c r="H55">
+        <v>265</v>
+      </c>
+      <c r="J55">
+        <v>265</v>
+      </c>
+      <c r="K55">
+        <v>265</v>
+      </c>
+      <c r="M55">
+        <v>134.88571428571379</v>
+      </c>
+      <c r="N55">
+        <v>134.8111111111107</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3965,29 +3969,29 @@
       <c r="B56" s="1">
         <v>12.5</v>
       </c>
-      <c r="D56" s="1">
-        <v>260.27999999999997</v>
-      </c>
-      <c r="E56" s="1">
-        <v>263.03333329999998</v>
-      </c>
-      <c r="G56" s="1">
-        <v>262.70925929999999</v>
-      </c>
-      <c r="H56" s="1">
-        <v>261.62407409999997</v>
-      </c>
-      <c r="J56" s="1">
-        <v>262.2633333</v>
-      </c>
-      <c r="K56" s="1">
-        <v>261.58333329999999</v>
-      </c>
-      <c r="M56" s="1">
-        <v>138.00333330000001</v>
-      </c>
-      <c r="N56" s="1">
-        <v>138.21666669999999</v>
+      <c r="D56">
+        <v>262.5</v>
+      </c>
+      <c r="E56">
+        <v>262.5</v>
+      </c>
+      <c r="G56">
+        <v>262.5</v>
+      </c>
+      <c r="H56">
+        <v>262.5</v>
+      </c>
+      <c r="J56">
+        <v>262.5</v>
+      </c>
+      <c r="K56">
+        <v>262.5</v>
+      </c>
+      <c r="M56">
+        <v>137.41904761904712</v>
+      </c>
+      <c r="N56">
+        <v>137.19999999999939</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3997,29 +4001,29 @@
       <c r="B57" s="1">
         <v>20</v>
       </c>
-      <c r="D57" s="1">
-        <v>257.89833329999999</v>
-      </c>
-      <c r="E57" s="1">
-        <v>260.86833330000002</v>
-      </c>
-      <c r="G57" s="1">
-        <v>260.2148148</v>
-      </c>
-      <c r="H57" s="1">
-        <v>259.4296296</v>
-      </c>
-      <c r="J57" s="1">
-        <v>259.97500000000002</v>
-      </c>
-      <c r="K57" s="1">
-        <v>259.33166670000003</v>
-      </c>
-      <c r="M57" s="1">
-        <v>140.33666669999999</v>
-      </c>
-      <c r="N57" s="1">
-        <v>140.81666670000001</v>
+      <c r="D57">
+        <v>260</v>
+      </c>
+      <c r="E57">
+        <v>260</v>
+      </c>
+      <c r="G57">
+        <v>260</v>
+      </c>
+      <c r="H57">
+        <v>260</v>
+      </c>
+      <c r="J57">
+        <v>260</v>
+      </c>
+      <c r="K57">
+        <v>260</v>
+      </c>
+      <c r="M57">
+        <v>140.08095238095171</v>
+      </c>
+      <c r="N57">
+        <v>139.79999999999941</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4029,29 +4033,29 @@
       <c r="B58" s="1">
         <v>27.5</v>
       </c>
-      <c r="D58" s="1">
-        <v>255.8266667</v>
-      </c>
-      <c r="E58" s="1">
-        <v>258.42</v>
-      </c>
-      <c r="G58" s="1">
-        <v>257.92592589999998</v>
-      </c>
-      <c r="H58" s="1">
-        <v>256.8222222</v>
-      </c>
-      <c r="J58" s="1">
-        <v>257.4916667</v>
-      </c>
-      <c r="K58" s="1">
-        <v>256.9483333</v>
-      </c>
-      <c r="M58" s="1">
-        <v>142.9866667</v>
-      </c>
-      <c r="N58" s="1">
-        <v>143.22</v>
+      <c r="D58">
+        <v>257.5</v>
+      </c>
+      <c r="E58">
+        <v>257.5</v>
+      </c>
+      <c r="G58">
+        <v>257.5</v>
+      </c>
+      <c r="H58">
+        <v>257.5</v>
+      </c>
+      <c r="J58">
+        <v>257.5</v>
+      </c>
+      <c r="K58">
+        <v>257.5</v>
+      </c>
+      <c r="M58">
+        <v>142.36190476190421</v>
+      </c>
+      <c r="N58">
+        <v>141.9333333333328</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4061,29 +4065,29 @@
       <c r="B59" s="1">
         <v>35</v>
       </c>
-      <c r="D59" s="1">
-        <v>253.61500000000001</v>
-      </c>
-      <c r="E59" s="1">
-        <v>255.845</v>
-      </c>
-      <c r="G59" s="1">
-        <v>255.55555559999999</v>
-      </c>
-      <c r="H59" s="1">
-        <v>254.29629629999999</v>
-      </c>
-      <c r="J59" s="1">
-        <v>255.12833330000001</v>
-      </c>
-      <c r="K59" s="1">
-        <v>254.49833330000001</v>
-      </c>
-      <c r="M59" s="1">
-        <v>145.28166669999999</v>
-      </c>
-      <c r="N59" s="1">
-        <v>145.565</v>
+      <c r="D59">
+        <v>255</v>
+      </c>
+      <c r="E59">
+        <v>255</v>
+      </c>
+      <c r="G59">
+        <v>255</v>
+      </c>
+      <c r="H59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>255</v>
+      </c>
+      <c r="K59">
+        <v>255</v>
+      </c>
+      <c r="M59">
+        <v>145.18095238095191</v>
+      </c>
+      <c r="N59">
+        <v>144.42222222222193</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4093,29 +4097,29 @@
       <c r="B60" s="1">
         <v>42.5</v>
       </c>
-      <c r="D60" s="1">
-        <v>251.14</v>
-      </c>
-      <c r="E60" s="1">
-        <v>253.52</v>
-      </c>
-      <c r="G60" s="1">
-        <v>252.9814815</v>
-      </c>
-      <c r="H60" s="1">
-        <v>251.90740740000001</v>
-      </c>
-      <c r="J60" s="1">
-        <v>252.82</v>
-      </c>
-      <c r="K60" s="1">
-        <v>252.0133333</v>
-      </c>
-      <c r="M60" s="1">
-        <v>147.88999999999999</v>
-      </c>
-      <c r="N60" s="1">
-        <v>147.83666669999999</v>
+      <c r="D60">
+        <v>252.5</v>
+      </c>
+      <c r="E60">
+        <v>252.5</v>
+      </c>
+      <c r="G60">
+        <v>252.5</v>
+      </c>
+      <c r="H60">
+        <v>252.5</v>
+      </c>
+      <c r="J60">
+        <v>252.5</v>
+      </c>
+      <c r="K60">
+        <v>252.5</v>
+      </c>
+      <c r="M60">
+        <v>147.73809523809459</v>
+      </c>
+      <c r="N60">
+        <v>147.08888888888853</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4125,29 +4129,29 @@
       <c r="B61" s="1">
         <v>50</v>
       </c>
-      <c r="D61" s="1">
-        <v>248.62833330000001</v>
-      </c>
-      <c r="E61" s="1">
-        <v>251.1116667</v>
-      </c>
-      <c r="G61" s="1">
-        <v>250.48888890000001</v>
-      </c>
-      <c r="H61" s="1">
-        <v>249.44444440000001</v>
-      </c>
-      <c r="J61" s="1">
-        <v>250.51166670000001</v>
-      </c>
-      <c r="K61" s="1">
-        <v>249.32166670000001</v>
-      </c>
-      <c r="M61" s="1">
-        <v>150.59333330000001</v>
-      </c>
-      <c r="N61" s="1">
-        <v>150.18666669999999</v>
+      <c r="D61">
+        <v>250</v>
+      </c>
+      <c r="E61">
+        <v>250</v>
+      </c>
+      <c r="G61">
+        <v>250</v>
+      </c>
+      <c r="H61">
+        <v>250</v>
+      </c>
+      <c r="J61">
+        <v>250</v>
+      </c>
+      <c r="K61">
+        <v>250</v>
+      </c>
+      <c r="M61">
+        <v>150.05714285714231</v>
+      </c>
+      <c r="N61">
+        <v>149.48888888888828</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4157,29 +4161,29 @@
       <c r="B62" s="1">
         <v>57.5</v>
       </c>
-      <c r="D62" s="1">
-        <v>246.16166670000001</v>
-      </c>
-      <c r="E62" s="1">
-        <v>248.625</v>
-      </c>
-      <c r="G62" s="1">
-        <v>247.93518520000001</v>
-      </c>
-      <c r="H62" s="1">
-        <v>247.06481479999999</v>
-      </c>
-      <c r="J62" s="1">
-        <v>247.9866667</v>
-      </c>
-      <c r="K62" s="1">
-        <v>246.88</v>
-      </c>
-      <c r="M62" s="1">
-        <v>153.07166670000001</v>
-      </c>
-      <c r="N62" s="1">
-        <v>152.90166669999999</v>
+      <c r="D62">
+        <v>247.5</v>
+      </c>
+      <c r="E62">
+        <v>247.5</v>
+      </c>
+      <c r="G62">
+        <v>247.5</v>
+      </c>
+      <c r="H62">
+        <v>247.5</v>
+      </c>
+      <c r="J62">
+        <v>247.5</v>
+      </c>
+      <c r="K62">
+        <v>247.5</v>
+      </c>
+      <c r="M62">
+        <v>152.76190476190442</v>
+      </c>
+      <c r="N62">
+        <v>152.17777777777729</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4189,29 +4193,29 @@
       <c r="B63" s="1">
         <v>65</v>
       </c>
-      <c r="D63" s="1">
-        <v>243.8283333</v>
-      </c>
-      <c r="E63" s="1">
-        <v>246.02500000000001</v>
-      </c>
-      <c r="G63" s="1">
-        <v>245.212963</v>
-      </c>
-      <c r="H63" s="1">
-        <v>244.787037</v>
-      </c>
-      <c r="J63" s="1">
-        <v>245.49666669999999</v>
-      </c>
-      <c r="K63" s="1">
-        <v>244.45</v>
-      </c>
-      <c r="M63" s="1">
-        <v>155.6116667</v>
-      </c>
-      <c r="N63" s="1">
-        <v>155.435</v>
+      <c r="D63">
+        <v>245</v>
+      </c>
+      <c r="E63">
+        <v>245</v>
+      </c>
+      <c r="G63">
+        <v>245</v>
+      </c>
+      <c r="H63">
+        <v>245</v>
+      </c>
+      <c r="J63">
+        <v>245</v>
+      </c>
+      <c r="K63">
+        <v>245</v>
+      </c>
+      <c r="M63">
+        <v>155.20476190476151</v>
+      </c>
+      <c r="N63">
+        <v>154.78888888888849</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4221,29 +4225,29 @@
       <c r="B64" s="1">
         <v>72.5</v>
       </c>
-      <c r="D64" s="1">
-        <v>241.40333330000001</v>
-      </c>
-      <c r="E64" s="1">
-        <v>243.45</v>
-      </c>
-      <c r="G64" s="1">
-        <v>242.712963</v>
-      </c>
-      <c r="H64" s="1">
-        <v>242.287037</v>
-      </c>
-      <c r="J64" s="1">
-        <v>243.15833330000001</v>
-      </c>
-      <c r="K64" s="1">
-        <v>241.84166669999999</v>
-      </c>
-      <c r="M64" s="1">
-        <v>157.89833329999999</v>
-      </c>
-      <c r="N64" s="1">
-        <v>157.77500000000001</v>
+      <c r="D64">
+        <v>242.5</v>
+      </c>
+      <c r="E64">
+        <v>242.5</v>
+      </c>
+      <c r="G64">
+        <v>242.5</v>
+      </c>
+      <c r="H64">
+        <v>242.5</v>
+      </c>
+      <c r="J64">
+        <v>242.5</v>
+      </c>
+      <c r="K64">
+        <v>242.5</v>
+      </c>
+      <c r="M64">
+        <v>157.48571428571381</v>
+      </c>
+      <c r="N64">
+        <v>157.15555555555508</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4253,29 +4257,29 @@
       <c r="B65" s="1">
         <v>80</v>
       </c>
-      <c r="D65" s="1">
-        <v>238.92833329999999</v>
-      </c>
-      <c r="E65" s="1">
-        <v>240.95833329999999</v>
-      </c>
-      <c r="G65" s="1">
-        <v>240.17592590000001</v>
-      </c>
-      <c r="H65" s="1">
-        <v>239.82407409999999</v>
-      </c>
-      <c r="J65" s="1">
-        <v>240.6416667</v>
-      </c>
-      <c r="K65" s="1">
-        <v>239.3583333</v>
-      </c>
-      <c r="M65" s="1">
-        <v>160.18166669999999</v>
-      </c>
-      <c r="N65" s="1">
-        <v>160.23166670000001</v>
+      <c r="D65">
+        <v>240</v>
+      </c>
+      <c r="E65">
+        <v>240</v>
+      </c>
+      <c r="G65">
+        <v>240</v>
+      </c>
+      <c r="H65">
+        <v>240</v>
+      </c>
+      <c r="J65">
+        <v>240</v>
+      </c>
+      <c r="K65">
+        <v>240</v>
+      </c>
+      <c r="M65">
+        <v>159.89999999999958</v>
+      </c>
+      <c r="N65">
+        <v>159.57777777777727</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4285,29 +4289,29 @@
       <c r="B66" s="1">
         <v>87.5</v>
       </c>
-      <c r="D66" s="1">
-        <v>236.46166669999999</v>
-      </c>
-      <c r="E66" s="1">
-        <v>238.45833329999999</v>
-      </c>
-      <c r="G66" s="1">
-        <v>237.69444440000001</v>
-      </c>
-      <c r="H66" s="1">
-        <v>237.30555559999999</v>
-      </c>
-      <c r="J66" s="1">
-        <v>238.20833329999999</v>
-      </c>
-      <c r="K66" s="1">
-        <v>236.79166670000001</v>
-      </c>
-      <c r="M66" s="1">
-        <v>162.47333330000001</v>
-      </c>
-      <c r="N66" s="1">
-        <v>162.69999999999999</v>
+      <c r="D66">
+        <v>237.5</v>
+      </c>
+      <c r="E66">
+        <v>237.5</v>
+      </c>
+      <c r="G66">
+        <v>237.5</v>
+      </c>
+      <c r="H66">
+        <v>237.5</v>
+      </c>
+      <c r="J66">
+        <v>237.5</v>
+      </c>
+      <c r="K66">
+        <v>237.5</v>
+      </c>
+      <c r="M66">
+        <v>162.40476190476153</v>
+      </c>
+      <c r="N66">
+        <v>162.19999999999951</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4317,29 +4321,29 @@
       <c r="B67" s="1">
         <v>95</v>
       </c>
-      <c r="D67" s="1">
-        <v>233.995</v>
-      </c>
-      <c r="E67" s="1">
-        <v>235.9916667</v>
-      </c>
-      <c r="G67" s="1">
-        <v>235.42592590000001</v>
-      </c>
-      <c r="H67" s="1">
-        <v>234.57407409999999</v>
-      </c>
-      <c r="J67" s="1">
-        <v>235.67500000000001</v>
-      </c>
-      <c r="K67" s="1">
-        <v>234.32499999999999</v>
-      </c>
-      <c r="M67" s="1">
-        <v>165.21833330000001</v>
-      </c>
-      <c r="N67" s="1">
-        <v>165.0083333</v>
+      <c r="D67">
+        <v>235</v>
+      </c>
+      <c r="E67">
+        <v>235</v>
+      </c>
+      <c r="G67">
+        <v>235</v>
+      </c>
+      <c r="H67">
+        <v>235</v>
+      </c>
+      <c r="J67">
+        <v>235</v>
+      </c>
+      <c r="K67">
+        <v>235</v>
+      </c>
+      <c r="M67">
+        <v>164.81428571428538</v>
+      </c>
+      <c r="N67">
+        <v>164.66666666666634</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4349,29 +4353,29 @@
       <c r="B68" s="1">
         <v>102.5</v>
       </c>
-      <c r="D68" s="1">
-        <v>231.3666667</v>
-      </c>
-      <c r="E68" s="1">
-        <v>233.6333333</v>
-      </c>
-      <c r="G68" s="1">
-        <v>232.84259259999999</v>
-      </c>
-      <c r="H68" s="1">
-        <v>232.15740740000001</v>
-      </c>
-      <c r="J68" s="1">
-        <v>233.17500000000001</v>
-      </c>
-      <c r="K68" s="1">
-        <v>231.82499999999999</v>
-      </c>
-      <c r="M68" s="1">
-        <v>167.69333330000001</v>
-      </c>
-      <c r="N68" s="1">
-        <v>167.44</v>
+      <c r="D68">
+        <v>232.5</v>
+      </c>
+      <c r="E68">
+        <v>232.5</v>
+      </c>
+      <c r="G68">
+        <v>232.5</v>
+      </c>
+      <c r="H68">
+        <v>232.5</v>
+      </c>
+      <c r="J68">
+        <v>232.5</v>
+      </c>
+      <c r="K68">
+        <v>232.5</v>
+      </c>
+      <c r="M68">
+        <v>167.22857142857109</v>
+      </c>
+      <c r="N68">
+        <v>167.22222222222163</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4381,29 +4385,29 @@
       <c r="B69" s="1">
         <v>110</v>
       </c>
-      <c r="D69" s="1">
-        <v>228.78333330000001</v>
-      </c>
-      <c r="E69" s="1">
-        <v>231.21666669999999</v>
-      </c>
-      <c r="G69" s="1">
-        <v>230.42592590000001</v>
-      </c>
-      <c r="H69" s="1">
-        <v>229.57407409999999</v>
-      </c>
-      <c r="J69" s="1">
-        <v>230.75</v>
-      </c>
-      <c r="K69" s="1">
-        <v>229.25</v>
-      </c>
-      <c r="M69" s="1">
-        <v>170.0783333</v>
-      </c>
-      <c r="N69" s="1">
-        <v>169.98833329999999</v>
+      <c r="D69">
+        <v>230</v>
+      </c>
+      <c r="E69">
+        <v>230</v>
+      </c>
+      <c r="G69">
+        <v>230</v>
+      </c>
+      <c r="H69">
+        <v>230</v>
+      </c>
+      <c r="J69">
+        <v>230</v>
+      </c>
+      <c r="K69">
+        <v>230</v>
+      </c>
+      <c r="M69">
+        <v>169.70476190476137</v>
+      </c>
+      <c r="N69">
+        <v>169.71111111111071</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4413,29 +4417,29 @@
       <c r="B70" s="1">
         <v>117.5</v>
       </c>
-      <c r="D70" s="1">
-        <v>226.27500000000001</v>
-      </c>
-      <c r="E70" s="1">
-        <v>228.72499999999999</v>
-      </c>
-      <c r="G70" s="1">
-        <v>227.75</v>
-      </c>
-      <c r="H70" s="1">
-        <v>227.25</v>
-      </c>
-      <c r="J70" s="1">
-        <v>228.29166670000001</v>
-      </c>
-      <c r="K70" s="1">
-        <v>226.70833329999999</v>
-      </c>
-      <c r="M70" s="1">
-        <v>172.37166669999999</v>
-      </c>
-      <c r="N70" s="1">
-        <v>172.90166669999999</v>
+      <c r="D70">
+        <v>227.5</v>
+      </c>
+      <c r="E70">
+        <v>227.5</v>
+      </c>
+      <c r="G70">
+        <v>227.5</v>
+      </c>
+      <c r="H70">
+        <v>227.5</v>
+      </c>
+      <c r="J70">
+        <v>227.5</v>
+      </c>
+      <c r="K70">
+        <v>227.5</v>
+      </c>
+      <c r="M70">
+        <v>172.28571428571391</v>
+      </c>
+      <c r="N70">
+        <v>172.3111111111107</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4445,29 +4449,29 @@
       <c r="B71" s="1">
         <v>125</v>
       </c>
-      <c r="D71" s="1">
-        <v>223.9</v>
-      </c>
-      <c r="E71" s="1">
-        <v>226.1</v>
-      </c>
-      <c r="G71" s="1">
-        <v>225.2407407</v>
-      </c>
-      <c r="H71" s="1">
-        <v>224.7592593</v>
-      </c>
-      <c r="J71" s="1">
-        <v>225.72499999999999</v>
-      </c>
-      <c r="K71" s="1">
-        <v>224.27500000000001</v>
-      </c>
-      <c r="M71" s="1">
-        <v>174.78</v>
-      </c>
-      <c r="N71" s="1">
-        <v>175.34</v>
+      <c r="D71">
+        <v>225</v>
+      </c>
+      <c r="E71">
+        <v>225</v>
+      </c>
+      <c r="G71">
+        <v>225</v>
+      </c>
+      <c r="H71">
+        <v>225</v>
+      </c>
+      <c r="J71">
+        <v>225</v>
+      </c>
+      <c r="K71">
+        <v>225</v>
+      </c>
+      <c r="M71">
+        <v>174.7142857142853</v>
+      </c>
+      <c r="N71">
+        <v>174.52222222222181</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4477,29 +4481,29 @@
       <c r="B72" s="1">
         <v>132.5</v>
       </c>
-      <c r="D72" s="1">
-        <v>221.45833329999999</v>
-      </c>
-      <c r="E72" s="1">
-        <v>223.54166670000001</v>
-      </c>
-      <c r="G72" s="1">
-        <v>222.62037040000001</v>
-      </c>
-      <c r="H72" s="1">
-        <v>222.37962959999999</v>
-      </c>
-      <c r="J72" s="1">
-        <v>223.1166667</v>
-      </c>
-      <c r="K72" s="1">
-        <v>221.8833333</v>
-      </c>
-      <c r="M72" s="1">
-        <v>177.185</v>
-      </c>
-      <c r="N72" s="1">
-        <v>177.89500000000001</v>
+      <c r="D72">
+        <v>222.5</v>
+      </c>
+      <c r="E72">
+        <v>222.5</v>
+      </c>
+      <c r="G72">
+        <v>222.5</v>
+      </c>
+      <c r="H72">
+        <v>222.5</v>
+      </c>
+      <c r="J72">
+        <v>222.5</v>
+      </c>
+      <c r="K72">
+        <v>222.5</v>
+      </c>
+      <c r="M72">
+        <v>177.12857142857092</v>
+      </c>
+      <c r="N72">
+        <v>176.88888888888852</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4509,29 +4513,29 @@
       <c r="B73" s="1">
         <v>140</v>
       </c>
-      <c r="D73" s="1">
-        <v>218.78333330000001</v>
-      </c>
-      <c r="E73" s="1">
-        <v>221.21666669999999</v>
-      </c>
-      <c r="G73" s="1">
-        <v>220.14814809999999</v>
-      </c>
-      <c r="H73" s="1">
-        <v>219.85185190000001</v>
-      </c>
-      <c r="J73" s="1">
-        <v>220.55</v>
-      </c>
-      <c r="K73" s="1">
-        <v>219.45</v>
-      </c>
-      <c r="M73" s="1">
-        <v>179.91</v>
-      </c>
-      <c r="N73" s="1">
-        <v>180.07</v>
+      <c r="D73">
+        <v>220</v>
+      </c>
+      <c r="E73">
+        <v>220</v>
+      </c>
+      <c r="G73">
+        <v>220</v>
+      </c>
+      <c r="H73">
+        <v>220</v>
+      </c>
+      <c r="J73">
+        <v>220</v>
+      </c>
+      <c r="K73">
+        <v>220</v>
+      </c>
+      <c r="M73">
+        <v>179.72857142857089</v>
+      </c>
+      <c r="N73">
+        <v>179.35555555555521</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4541,29 +4545,29 @@
       <c r="B74" s="1">
         <v>147.5</v>
       </c>
-      <c r="D74" s="1">
-        <v>216.28333330000001</v>
-      </c>
-      <c r="E74" s="1">
-        <v>218.71666669999999</v>
-      </c>
-      <c r="G74" s="1">
-        <v>217.87037040000001</v>
-      </c>
-      <c r="H74" s="1">
-        <v>217.12962959999999</v>
-      </c>
-      <c r="J74" s="1">
-        <v>218.04166670000001</v>
-      </c>
-      <c r="K74" s="1">
-        <v>216.95833329999999</v>
-      </c>
-      <c r="M74" s="1">
-        <v>182.43333329999999</v>
-      </c>
-      <c r="N74" s="1">
-        <v>182.60666670000001</v>
+      <c r="D74">
+        <v>217.5</v>
+      </c>
+      <c r="E74">
+        <v>217.5</v>
+      </c>
+      <c r="G74">
+        <v>217.5</v>
+      </c>
+      <c r="H74">
+        <v>217.5</v>
+      </c>
+      <c r="J74">
+        <v>217.5</v>
+      </c>
+      <c r="K74">
+        <v>217.5</v>
+      </c>
+      <c r="M74">
+        <v>182.29047619047569</v>
+      </c>
+      <c r="N74">
+        <v>181.92222222222171</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4573,29 +4577,29 @@
       <c r="B75" s="1">
         <v>155</v>
       </c>
-      <c r="D75" s="1">
-        <v>213.84166669999999</v>
-      </c>
-      <c r="E75" s="1">
-        <v>216.15833330000001</v>
-      </c>
-      <c r="G75" s="1">
-        <v>215.29629629999999</v>
-      </c>
-      <c r="H75" s="1">
-        <v>214.70370370000001</v>
-      </c>
-      <c r="J75" s="1">
-        <v>215.5166667</v>
-      </c>
-      <c r="K75" s="1">
-        <v>214.4833333</v>
-      </c>
-      <c r="M75" s="1">
-        <v>184.97499999999999</v>
-      </c>
-      <c r="N75" s="1">
-        <v>185.14500000000001</v>
+      <c r="D75">
+        <v>215</v>
+      </c>
+      <c r="E75">
+        <v>215</v>
+      </c>
+      <c r="G75">
+        <v>215</v>
+      </c>
+      <c r="H75">
+        <v>215</v>
+      </c>
+      <c r="J75">
+        <v>215</v>
+      </c>
+      <c r="K75">
+        <v>215</v>
+      </c>
+      <c r="M75">
+        <v>184.92857142857102</v>
+      </c>
+      <c r="N75">
+        <v>184.5222222222217</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4605,29 +4609,29 @@
       <c r="B76" s="1">
         <v>162.5</v>
       </c>
-      <c r="D76" s="1">
-        <v>211.3916667</v>
-      </c>
-      <c r="E76" s="1">
-        <v>213.6083333</v>
-      </c>
-      <c r="G76" s="1">
-        <v>213.0185185</v>
-      </c>
-      <c r="H76" s="1">
-        <v>211.9814815</v>
-      </c>
-      <c r="J76" s="1">
-        <v>212.9916667</v>
-      </c>
-      <c r="K76" s="1">
-        <v>212.0083333</v>
-      </c>
-      <c r="M76" s="1">
-        <v>187.4566667</v>
-      </c>
-      <c r="N76" s="1">
-        <v>188.0766667</v>
+      <c r="D76">
+        <v>212.5</v>
+      </c>
+      <c r="E76">
+        <v>212.5</v>
+      </c>
+      <c r="G76">
+        <v>212.5</v>
+      </c>
+      <c r="H76">
+        <v>212.5</v>
+      </c>
+      <c r="J76">
+        <v>212.5</v>
+      </c>
+      <c r="K76">
+        <v>212.5</v>
+      </c>
+      <c r="M76">
+        <v>187.2809523809519</v>
+      </c>
+      <c r="N76">
+        <v>187.23333333333278</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4637,29 +4641,29 @@
       <c r="B77" s="1">
         <v>170</v>
       </c>
-      <c r="D77" s="1">
-        <v>209.2</v>
-      </c>
-      <c r="E77" s="1">
-        <v>210.8</v>
-      </c>
-      <c r="G77" s="1">
-        <v>210.5092593</v>
-      </c>
-      <c r="H77" s="1">
-        <v>209.4907407</v>
-      </c>
-      <c r="J77" s="1">
-        <v>210.43333329999999</v>
-      </c>
-      <c r="K77" s="1">
-        <v>209.56666670000001</v>
-      </c>
-      <c r="M77" s="1">
-        <v>189.90166669999999</v>
-      </c>
-      <c r="N77" s="1">
-        <v>190.5783333</v>
+      <c r="D77">
+        <v>210</v>
+      </c>
+      <c r="E77">
+        <v>210</v>
+      </c>
+      <c r="G77">
+        <v>210</v>
+      </c>
+      <c r="H77">
+        <v>210</v>
+      </c>
+      <c r="J77">
+        <v>210</v>
+      </c>
+      <c r="K77">
+        <v>210</v>
+      </c>
+      <c r="M77">
+        <v>189.84761904761848</v>
+      </c>
+      <c r="N77">
+        <v>189.68888888888819</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4669,29 +4673,29 @@
       <c r="B78" s="1">
         <v>177.5</v>
       </c>
-      <c r="D78" s="1">
-        <v>206.875</v>
-      </c>
-      <c r="E78" s="1">
-        <v>208.125</v>
-      </c>
-      <c r="G78" s="1">
-        <v>208</v>
-      </c>
-      <c r="H78" s="1">
-        <v>207</v>
-      </c>
-      <c r="J78" s="1">
-        <v>207.75</v>
-      </c>
-      <c r="K78" s="1">
-        <v>207.25</v>
-      </c>
-      <c r="M78" s="1">
-        <v>192.25333330000001</v>
-      </c>
-      <c r="N78" s="1">
-        <v>192.84666669999999</v>
+      <c r="D78">
+        <v>207.5</v>
+      </c>
+      <c r="E78">
+        <v>207.5</v>
+      </c>
+      <c r="G78">
+        <v>207.5</v>
+      </c>
+      <c r="H78">
+        <v>207.5</v>
+      </c>
+      <c r="J78">
+        <v>207.5</v>
+      </c>
+      <c r="K78">
+        <v>207.5</v>
+      </c>
+      <c r="M78">
+        <v>192.44761904761873</v>
+      </c>
+      <c r="N78">
+        <v>191.9666666666663</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4701,29 +4705,29 @@
       <c r="B79" s="1">
         <v>185</v>
       </c>
-      <c r="D79" s="1">
-        <v>204.6333333</v>
-      </c>
-      <c r="E79" s="1">
-        <v>205.3666667</v>
-      </c>
-      <c r="G79" s="1">
-        <v>205.45370370000001</v>
-      </c>
-      <c r="H79" s="1">
-        <v>204.54629629999999</v>
-      </c>
-      <c r="J79" s="1">
-        <v>205.21666669999999</v>
-      </c>
-      <c r="K79" s="1">
-        <v>204.78333330000001</v>
-      </c>
-      <c r="M79" s="1">
-        <v>194.6033333</v>
-      </c>
-      <c r="N79" s="1">
-        <v>195.6166667</v>
+      <c r="D79">
+        <v>205</v>
+      </c>
+      <c r="E79">
+        <v>205</v>
+      </c>
+      <c r="G79">
+        <v>205</v>
+      </c>
+      <c r="H79">
+        <v>205</v>
+      </c>
+      <c r="J79">
+        <v>205</v>
+      </c>
+      <c r="K79">
+        <v>205</v>
+      </c>
+      <c r="M79">
+        <v>194.88571428571382</v>
+      </c>
+      <c r="N79">
+        <v>194.6111111111108</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4733,29 +4737,29 @@
       <c r="B80" s="1">
         <v>192.5</v>
       </c>
-      <c r="D80" s="1">
-        <v>202.46666669999999</v>
-      </c>
-      <c r="E80" s="1">
-        <v>202.53333330000001</v>
-      </c>
-      <c r="G80" s="1">
-        <v>202.89814809999999</v>
-      </c>
-      <c r="H80" s="1">
-        <v>202.10185190000001</v>
-      </c>
-      <c r="J80" s="1">
-        <v>202.47499999999999</v>
-      </c>
-      <c r="K80" s="1">
-        <v>202.52500000000001</v>
-      </c>
-      <c r="M80" s="1">
-        <v>197.285</v>
-      </c>
-      <c r="N80" s="1">
-        <v>197.67500000000001</v>
+      <c r="D80">
+        <v>202.5</v>
+      </c>
+      <c r="E80">
+        <v>202.5</v>
+      </c>
+      <c r="G80">
+        <v>202.5</v>
+      </c>
+      <c r="H80">
+        <v>202.5</v>
+      </c>
+      <c r="J80">
+        <v>202.5</v>
+      </c>
+      <c r="K80">
+        <v>202.5</v>
+      </c>
+      <c r="M80">
+        <v>197.42380952380913</v>
+      </c>
+      <c r="N80">
+        <v>197.1666666666662</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4765,60 +4769,50 @@
       <c r="B81" s="1">
         <v>200</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>200</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81">
         <v>200</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>200</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81">
         <v>200</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81">
         <v>200</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K81">
         <v>200</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M81">
         <v>200</v>
       </c>
-      <c r="N81" s="1">
+      <c r="N81">
         <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
